--- a/spårväxel_LCC/LCC_Kimstad_maj23(automatiskt återställd).xlsx
+++ b/spårväxel_LCC/LCC_Kimstad_maj23(automatiskt återställd).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AbdouAA\Work Folders\Documents\GitHub\mistra-inframaint\spårväxel_LCC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633DCE94-9F8C-4297-A172-8EE44FAD17EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6538D970-9CCB-45C9-B848-8F3E0DCF2C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-16932" yWindow="1860" windowWidth="17304" windowHeight="9048" tabRatio="807" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="807" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Maintenance strategy" sheetId="5" r:id="rId1"/>
@@ -1406,6 +1406,7 @@
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="167" fontId="9" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1415,7 +1416,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bra" xfId="2" builtinId="26"/>
@@ -8706,7 +8706,7 @@
       <c r="F3" s="2">
         <v>2</v>
       </c>
-      <c r="G3" s="139" t="s">
+      <c r="G3" s="140" t="s">
         <v>28</v>
       </c>
       <c r="I3" s="10" t="s">
@@ -8741,7 +8741,7 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" s="140"/>
+      <c r="G4" s="141"/>
       <c r="I4" s="20">
         <v>41778.839583333298</v>
       </c>
@@ -8777,7 +8777,7 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" s="140"/>
+      <c r="G5" s="141"/>
       <c r="I5" s="20">
         <v>41865.585416666698</v>
       </c>
@@ -8808,7 +8808,7 @@
       <c r="F6">
         <v>3</v>
       </c>
-      <c r="G6" s="140"/>
+      <c r="G6" s="141"/>
       <c r="I6" s="23">
         <v>41883</v>
       </c>
@@ -8839,7 +8839,7 @@
       <c r="F7" s="5">
         <v>2</v>
       </c>
-      <c r="G7" s="141"/>
+      <c r="G7" s="142"/>
       <c r="I7" s="24">
         <v>41913</v>
       </c>
@@ -9001,7 +9001,7 @@
       <c r="F17" s="132">
         <v>1</v>
       </c>
-      <c r="G17" s="139" t="s">
+      <c r="G17" s="140" t="s">
         <v>28</v>
       </c>
       <c r="I17" s="17">
@@ -9034,7 +9034,7 @@
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="G18" s="140"/>
+      <c r="G18" s="141"/>
       <c r="I18" s="15">
         <v>42475</v>
       </c>
@@ -9065,7 +9065,7 @@
       <c r="F19">
         <v>0</v>
       </c>
-      <c r="G19" s="140"/>
+      <c r="G19" s="141"/>
       <c r="I19" s="16">
         <v>42475</v>
       </c>
@@ -9096,7 +9096,7 @@
       <c r="F20">
         <v>0</v>
       </c>
-      <c r="G20" s="140"/>
+      <c r="G20" s="141"/>
       <c r="I20" s="18">
         <v>42487</v>
       </c>
@@ -9127,7 +9127,7 @@
       <c r="F21" s="5">
         <v>0</v>
       </c>
-      <c r="G21" s="141"/>
+      <c r="G21" s="142"/>
       <c r="I21" s="19">
         <v>42491</v>
       </c>
@@ -10097,7 +10097,7 @@
       <c r="G50" t="s">
         <v>48</v>
       </c>
-      <c r="I50" s="142" t="s">
+      <c r="I50" s="139" t="s">
         <v>222</v>
       </c>
     </row>

--- a/spårväxel_LCC/LCC_Kimstad_maj23(automatiskt återställd).xlsx
+++ b/spårväxel_LCC/LCC_Kimstad_maj23(automatiskt återställd).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AbdouAA\Work Folders\Documents\GitHub\mistra-inframaint\spårväxel_LCC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6538D970-9CCB-45C9-B848-8F3E0DCF2C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9554D350-D5EF-4692-A31F-47D89865A3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="807" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="807" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Maintenance strategy" sheetId="5" r:id="rId1"/>
@@ -1794,37 +1794,37 @@
                 <c:formatCode>#\ ##0\ "kr"</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1119.1613243558936</c:v>
+                  <c:v>4945.0123400799048</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1813.9253916623068</c:v>
+                  <c:v>8014.8261475321988</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2173.8581597935736</c:v>
+                  <c:v>9605.1884494394726</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2413.7431330015856</c:v>
+                  <c:v>10665.119780962268</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2583.5432741125737</c:v>
+                  <c:v>11415.381405330314</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2705.9269740015143</c:v>
+                  <c:v>11956.133567690595</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2793.682181103577</c:v>
+                  <c:v>12343.879795675841</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2854.9502404994123</c:v>
+                  <c:v>12614.592608182584</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2895.333325477025</c:v>
+                  <c:v>12793.025198014722</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2918.9006335111567</c:v>
+                  <c:v>12897.157307045851</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2928.7271860465885</c:v>
+                  <c:v>12940.575912112567</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1909,37 +1909,37 @@
                 <c:formatCode>#\ ##0\ "kr"</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1471.4897776547728</c:v>
+                  <c:v>2706.0601733281237</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6965.8746734851375</c:v>
+                  <c:v>12810.198421055975</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15444.251099653071</c:v>
+                  <c:v>28401.877771967349</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26379.310192736928</c:v>
+                  <c:v>48511.380640512674</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39258.646304420348</c:v>
+                  <c:v>72196.396357223901</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53622.79755760252</c:v>
+                  <c:v>98611.977505091651</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69062.343236469809</c:v>
+                  <c:v>127005.20203870116</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>85214.818884324559</c:v>
+                  <c:v>156709.50016911389</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>101761.80084376346</c:v>
+                  <c:v>187139.29285213299</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>118426.03358237172</c:v>
+                  <c:v>217784.70895885507</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>134968.5498794977</c:v>
+                  <c:v>248206.28931779548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2024,37 +2024,37 @@
                 <c:formatCode>#\ ##0\ "kr"</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>55.794250830733674</c:v>
+                  <c:v>77.855084388984764</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>264.12399507614356</c:v>
+                  <c:v>368.55761336760929</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>585.59728571151652</c:v>
+                  <c:v>817.14021459567323</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000.2202339326049</c:v>
+                  <c:v>1395.7034920432689</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1488.5640338425628</c:v>
+                  <c:v>2077.1365642099859</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2033.2073403478621</c:v>
+                  <c:v>2837.1297527287643</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2618.6262113455468</c:v>
+                  <c:v>3654.0210081145765</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3231.0771379636462</c:v>
+                  <c:v>4508.632690608908</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3858.4864995210037</c:v>
+                  <c:v>5384.1173160531525</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4490.3416407789182</c:v>
+                  <c:v>6265.8055655018097</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5117.581678507463</c:v>
+                  <c:v>7141.0539171224073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2676,37 +2676,37 @@
                 <c:formatCode>#\ ##0\ "kr"</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1119.1613243558936</c:v>
+                  <c:v>4945.0123400799048</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1813.9253916623068</c:v>
+                  <c:v>8014.8261475321988</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2173.8581597935736</c:v>
+                  <c:v>9605.1884494394726</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2413.7431330015856</c:v>
+                  <c:v>10665.119780962268</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2583.5432741125737</c:v>
+                  <c:v>11415.381405330314</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2705.9269740015143</c:v>
+                  <c:v>11956.133567690595</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2793.682181103577</c:v>
+                  <c:v>12343.879795675841</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2854.9502404994123</c:v>
+                  <c:v>12614.592608182584</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2895.333325477025</c:v>
+                  <c:v>12793.025198014722</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2918.9006335111567</c:v>
+                  <c:v>12897.157307045851</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2928.7271860465885</c:v>
+                  <c:v>12940.575912112567</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2791,37 +2791,37 @@
                 <c:formatCode>#\ ##0\ "kr"</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1471.4897776547728</c:v>
+                  <c:v>2706.0601733281237</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6965.8746734851375</c:v>
+                  <c:v>12810.198421055975</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15444.251099653071</c:v>
+                  <c:v>28401.877771967349</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26379.310192736928</c:v>
+                  <c:v>48511.380640512674</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39258.646304420348</c:v>
+                  <c:v>72196.396357223901</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53622.79755760252</c:v>
+                  <c:v>98611.977505091651</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69062.343236469809</c:v>
+                  <c:v>127005.20203870116</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>85214.818884324559</c:v>
+                  <c:v>156709.50016911389</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>101761.80084376346</c:v>
+                  <c:v>187139.29285213299</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>118426.03358237172</c:v>
+                  <c:v>217784.70895885507</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>134968.5498794977</c:v>
+                  <c:v>248206.28931779548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2906,37 +2906,37 @@
                 <c:formatCode>#\ ##0\ "kr"</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>55.794250830733674</c:v>
+                  <c:v>77.855084388984764</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>264.12399507614356</c:v>
+                  <c:v>368.55761336760929</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>585.59728571151652</c:v>
+                  <c:v>817.14021459567323</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000.2202339326049</c:v>
+                  <c:v>1395.7034920432689</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1488.5640338425628</c:v>
+                  <c:v>2077.1365642099859</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2033.2073403478621</c:v>
+                  <c:v>2837.1297527287643</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2618.6262113455468</c:v>
+                  <c:v>3654.0210081145765</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3231.0771379636462</c:v>
+                  <c:v>4508.632690608908</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3858.4864995210037</c:v>
+                  <c:v>5384.1173160531525</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4490.3416407789182</c:v>
+                  <c:v>6265.8055655018097</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5117.581678507463</c:v>
+                  <c:v>7141.0539171224073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3426,34 +3426,34 @@
                   <c:v>7067</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74516.325866666666</c:v>
+                  <c:v>142890.0026666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7643.6672000000008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80596.858057386664</c:v>
+                  <c:v>154549.82688426669</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>8267.390443520002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>147540.76163098746</c:v>
+                  <c:v>223979.34909870184</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>212814.10724691147</c:v>
+                  <c:v>322530.36552838481</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>277937.38932055247</c:v>
+                  <c:v>420855.90071645455</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>353417.89182224346</c:v>
+                  <c:v>534724.00232166075</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>439673.53687028564</c:v>
+                  <c:v>664766.86369919509</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>537112.97236540832</c:v>
+                  <c:v>811601.67421299871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3538,37 +3538,37 @@
                 <c:formatCode>#\ ##0\ "kr"</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>13338.569758988</c:v>
+                  <c:v>18421.052003943612</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26806.504564594339</c:v>
+                  <c:v>39947.574789059887</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47042.674012772681</c:v>
+                  <c:v>71165.742321555997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75214.712251474586</c:v>
+                  <c:v>114159.87819716113</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>111907.01311388727</c:v>
+                  <c:v>169877.08089969223</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>157618.65659537967</c:v>
+                  <c:v>239096.20009688032</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>212814.10724691147</c:v>
+                  <c:v>322530.36552838481</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>277937.38932055247</c:v>
+                  <c:v>420855.90071645455</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>353417.89182224346</c:v>
+                  <c:v>534724.00232166075</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>439673.53687028564</c:v>
+                  <c:v>664766.86369919509</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>537112.97236540832</c:v>
+                  <c:v>811601.67421299871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3949,22 +3949,22 @@
                 <c:formatCode>#\ ##0\ "kr"</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>54272.000533093465</c:v>
+                  <c:v>90732.872715525868</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76920.872920781752</c:v>
+                  <c:v>123846.80026022</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>102047.9374707531</c:v>
+                  <c:v>160972.93781724933</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>129977.93239869649</c:v>
+                  <c:v>202500.83387329505</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>160947.49284585539</c:v>
+                  <c:v>248727.43685588505</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>195144.35462036022</c:v>
+                  <c:v>299897.8220701681</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4035,22 +4035,22 @@
                 <c:formatCode>#\ ##0\ "kr"</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>71988.02171618276</c:v>
+                  <c:v>108777.92138471553</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>92106.033934858293</c:v>
+                  <c:v>139313.98483381115</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>115334.95335807007</c:v>
+                  <c:v>174506.72431914156</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>141788.61318742266</c:v>
+                  <c:v>214530.86631942148</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>171577.10555570896</c:v>
+                  <c:v>259554.46605739882</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>204807.63890204529</c:v>
+                  <c:v>309740.57588972611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8648,25 +8648,25 @@
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>27</v>
       </c>
@@ -8686,7 +8686,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2014</v>
       </c>
@@ -8722,7 +8722,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2015</v>
       </c>
@@ -8758,7 +8758,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2016</v>
       </c>
@@ -8789,7 +8789,7 @@
       </c>
       <c r="L5" s="64"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2017</v>
       </c>
@@ -8820,7 +8820,7 @@
       </c>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>2018</v>
       </c>
@@ -8851,7 +8851,7 @@
       </c>
       <c r="L7" s="64"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I8" s="20">
         <v>42001.255555555603</v>
       </c>
@@ -8863,7 +8863,7 @@
       </c>
       <c r="L8" s="64"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I9" s="25">
         <v>42044.974999999999</v>
       </c>
@@ -8875,7 +8875,7 @@
       </c>
       <c r="L9" s="64"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I10" s="25">
         <v>42068.0444444444</v>
       </c>
@@ -8887,7 +8887,7 @@
       </c>
       <c r="L10" s="64"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I11" s="25">
         <v>42090.2993055556</v>
       </c>
@@ -8899,7 +8899,7 @@
       </c>
       <c r="L11" s="64"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I12" s="28">
         <v>42125</v>
       </c>
@@ -8911,7 +8911,7 @@
       </c>
       <c r="L12" s="64"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I13" s="30">
         <v>42249</v>
       </c>
@@ -8923,7 +8923,7 @@
       </c>
       <c r="L13" s="64"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I14" s="28">
         <v>42249</v>
       </c>
@@ -8935,7 +8935,7 @@
       </c>
       <c r="L14" s="64"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>142</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>27</v>
       </c>
@@ -8982,7 +8982,7 @@
       </c>
       <c r="L16" s="64"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2014</v>
       </c>
@@ -9015,7 +9015,7 @@
       </c>
       <c r="L17" s="64"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>2015</v>
       </c>
@@ -9046,7 +9046,7 @@
       </c>
       <c r="L18" s="64"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>2016</v>
       </c>
@@ -9077,7 +9077,7 @@
       </c>
       <c r="L19" s="64"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>2017</v>
       </c>
@@ -9108,7 +9108,7 @@
       </c>
       <c r="L20" s="64"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>2018</v>
       </c>
@@ -9139,7 +9139,7 @@
       </c>
       <c r="L21" s="64"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I22" s="31">
         <v>42759.929861111101</v>
       </c>
@@ -9151,7 +9151,7 @@
       </c>
       <c r="L22" s="64"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I23" s="31">
         <v>42761.091666666704</v>
       </c>
@@ -9163,7 +9163,7 @@
       </c>
       <c r="L23" s="64"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I24" s="31">
         <v>42815.414583333302</v>
       </c>
@@ -9175,7 +9175,7 @@
       </c>
       <c r="L24" s="64"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I25" s="31">
         <v>42826.462500000001</v>
       </c>
@@ -9187,7 +9187,7 @@
       </c>
       <c r="L25" s="64"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I26" s="34">
         <v>42829</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I27" s="35">
         <v>43110.083333333299</v>
       </c>
@@ -9213,7 +9213,7 @@
       </c>
       <c r="L27" s="64"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I28" s="35">
         <v>43139.028472222199</v>
       </c>
@@ -9225,7 +9225,7 @@
       </c>
       <c r="L28" s="64"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I29" s="35">
         <v>43152.002777777801</v>
       </c>
@@ -9237,7 +9237,7 @@
       </c>
       <c r="L29" s="64"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I30" s="38">
         <v>43191</v>
       </c>
@@ -9249,7 +9249,7 @@
       </c>
       <c r="L30" s="64"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I31" s="39">
         <v>43252</v>
       </c>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="L31" s="64"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I32" s="41">
         <v>43343</v>
       </c>
@@ -9273,7 +9273,7 @@
       </c>
       <c r="L32" s="64"/>
     </row>
-    <row r="33" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I33" s="41">
         <v>43374</v>
       </c>
@@ -9285,7 +9285,7 @@
       </c>
       <c r="L33" s="64"/>
     </row>
-    <row r="34" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="9:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="I34" s="15">
         <v>43525</v>
       </c>
@@ -9297,7 +9297,7 @@
       </c>
       <c r="L34" s="64"/>
     </row>
-    <row r="35" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="9:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="I35" s="12">
         <v>43525.218055555597</v>
       </c>
@@ -9309,7 +9309,7 @@
       </c>
       <c r="L35" s="64"/>
     </row>
-    <row r="36" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="9:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="I36" s="15">
         <v>43556</v>
       </c>
@@ -9321,7 +9321,7 @@
       </c>
       <c r="L36" s="64"/>
     </row>
-    <row r="37" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="9:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="I37" s="15">
         <v>43556</v>
       </c>
@@ -9333,7 +9333,7 @@
       </c>
       <c r="L37" s="64"/>
     </row>
-    <row r="38" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="9:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="I38" s="15">
         <v>43644</v>
       </c>
@@ -9345,7 +9345,7 @@
       </c>
       <c r="L38" s="64"/>
     </row>
-    <row r="39" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="9:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="I39" s="16">
         <v>43755</v>
       </c>
@@ -9357,7 +9357,7 @@
       </c>
       <c r="L39" s="64"/>
     </row>
-    <row r="40" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="9:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="I40" s="42">
         <v>43922</v>
       </c>
@@ -9369,7 +9369,7 @@
       </c>
       <c r="L40" s="64"/>
     </row>
-    <row r="41" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="9:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="I41" s="44">
         <v>44112</v>
       </c>
@@ -9381,7 +9381,7 @@
       </c>
       <c r="L41" s="64"/>
     </row>
-    <row r="42" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="9:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="I42" s="42">
         <v>44132</v>
       </c>
@@ -9393,7 +9393,7 @@
       </c>
       <c r="L42" s="64"/>
     </row>
-    <row r="43" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="9:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="I43" s="44">
         <v>44379</v>
       </c>
@@ -9405,7 +9405,7 @@
       </c>
       <c r="L43" s="64"/>
     </row>
-    <row r="44" spans="9:12" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="9:12" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="G3:G7"/>
@@ -9420,22 +9420,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B47" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView tabSelected="1" topLeftCell="B52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -9469,7 +9469,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>123</v>
       </c>
@@ -9483,7 +9483,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="111" t="s">
         <v>191</v>
       </c>
@@ -9492,7 +9492,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -9509,7 +9509,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>38</v>
       </c>
@@ -9531,7 +9531,7 @@
         <v>0.20370370370370369</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>34</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>35</v>
       </c>
@@ -9565,7 +9565,7 @@
         <v>0.39814814814814814</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>36</v>
       </c>
@@ -9580,7 +9580,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>39</v>
       </c>
@@ -9598,7 +9598,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>6</v>
       </c>
@@ -9621,7 +9621,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="50"/>
       <c r="C15" s="50" t="s">
         <v>158</v>
@@ -9639,7 +9639,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="50"/>
       <c r="C16" s="9" t="s">
         <v>176</v>
@@ -9657,7 +9657,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B17" s="50"/>
       <c r="C17" s="115" t="s">
         <v>173</v>
@@ -9674,7 +9674,7 @@
       </c>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B18" s="50" t="s">
         <v>181</v>
       </c>
@@ -9693,7 +9693,7 @@
       </c>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B19" s="50"/>
       <c r="C19" s="50" t="s">
         <v>183</v>
@@ -9710,7 +9710,7 @@
       </c>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20" s="50" t="s">
         <v>175</v>
       </c>
@@ -9728,7 +9728,7 @@
       </c>
       <c r="G20" s="50"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C21" s="50" t="s">
         <v>172</v>
       </c>
@@ -9743,7 +9743,7 @@
       </c>
       <c r="G21" s="50"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C22" s="9" t="s">
         <v>174</v>
       </c>
@@ -9760,7 +9760,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23" s="50" t="s">
         <v>162</v>
       </c>
@@ -9775,7 +9775,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24" s="50" t="s">
         <v>164</v>
       </c>
@@ -9790,7 +9790,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25" s="50" t="s">
         <v>166</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>168</v>
       </c>
@@ -9821,10 +9821,10 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D27" s="55"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>17</v>
       </c>
@@ -9844,7 +9844,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>25</v>
       </c>
@@ -9858,7 +9858,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>26</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>11</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>25</v>
       </c>
@@ -9903,7 +9903,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>26</v>
       </c>
@@ -9917,7 +9917,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>12</v>
       </c>
@@ -9934,7 +9934,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>25</v>
       </c>
@@ -9948,7 +9948,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>26</v>
       </c>
@@ -9962,7 +9962,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>13</v>
       </c>
@@ -9979,7 +9979,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>25</v>
       </c>
@@ -9993,7 +9993,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>26</v>
       </c>
@@ -10007,7 +10007,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>20</v>
       </c>
@@ -10015,7 +10015,7 @@
         <v>24</v>
       </c>
       <c r="D44">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E44" t="s">
         <v>22</v>
@@ -10024,12 +10024,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>25</v>
       </c>
       <c r="D45">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E45" t="s">
         <v>22</v>
@@ -10038,7 +10038,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>26</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>21</v>
       </c>
@@ -10060,7 +10060,7 @@
         <v>24</v>
       </c>
       <c r="D48" s="63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E48" t="s">
         <v>23</v>
@@ -10069,12 +10069,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" t="s">
         <v>23</v>
@@ -10083,7 +10083,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -10101,7 +10101,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>90</v>
       </c>
@@ -10110,7 +10110,7 @@
       </c>
       <c r="D52" s="68">
         <f>D48*(1+D28)*(1+D32)*D36+D44*D40</f>
-        <v>10490.08</v>
+        <v>46350.399999999994</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>84</v>
@@ -10119,14 +10119,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B53" s="7"/>
       <c r="C53" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="68">
         <f>D49*(1+D29)*(1+D33)*D37+D45*D41</f>
-        <v>25264.16</v>
+        <v>57628.32</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>84</v>
@@ -10135,7 +10135,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B54" s="7"/>
       <c r="C54" s="7" t="s">
         <v>26</v>
@@ -10151,7 +10151,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>18</v>
       </c>
@@ -10171,7 +10171,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>25</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>26</v>
       </c>
@@ -10199,7 +10199,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>221</v>
       </c>
@@ -10214,7 +10214,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>99</v>
       </c>
@@ -10228,7 +10228,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C63" s="7" t="s">
         <v>93</v>
       </c>
@@ -10241,7 +10241,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C64" s="7" t="s">
         <v>94</v>
       </c>
@@ -10254,7 +10254,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C65" s="7" t="s">
         <v>95</v>
       </c>
@@ -10267,7 +10267,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>49</v>
       </c>
@@ -10275,8 +10275,7 @@
         <v>24</v>
       </c>
       <c r="D67" s="137">
-        <f>866+38</f>
-        <v>904</v>
+        <v>400</v>
       </c>
       <c r="E67" t="s">
         <v>51</v>
@@ -10285,12 +10284,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="137">
-        <v>160</v>
+        <v>241</v>
       </c>
       <c r="E68" t="s">
         <v>50</v>
@@ -10299,12 +10298,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>26</v>
       </c>
       <c r="D69" s="137">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="E69" t="s">
         <v>50</v>
@@ -10313,7 +10312,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71" s="7" t="s">
         <v>97</v>
       </c>
@@ -10322,7 +10321,7 @@
       </c>
       <c r="D71" s="67">
         <f>D57*D67*D63</f>
-        <v>170.15288888888887</v>
+        <v>75.288888888888877</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>98</v>
@@ -10331,14 +10330,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="7"/>
       <c r="C72" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="67">
         <f>D58*D68*D64</f>
-        <v>4556.0888888888885</v>
+        <v>6862.608888888888</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>98</v>
@@ -10347,14 +10346,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="7"/>
       <c r="C73" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D73" s="67">
         <f>D59*D69*D65</f>
-        <v>2775.5066666666662</v>
+        <v>3530.0133333333329</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>98</v>
@@ -10381,16 +10380,16 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="103" t="s">
         <v>121</v>
       </c>
@@ -10448,7 +10447,7 @@
       </c>
       <c r="AA1" s="8"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="103">
         <v>0</v>
       </c>
@@ -10516,7 +10515,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="103">
         <v>1</v>
       </c>
@@ -10588,7 +10587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="103">
         <v>2</v>
       </c>
@@ -10660,7 +10659,7 @@
         <v>7.7590972482809287E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="103">
         <v>3</v>
       </c>
@@ -10732,7 +10731,7 @@
         <v>0.20837998508614841</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="103">
         <v>4</v>
       </c>
@@ -10804,7 +10803,7 @@
         <v>0.37139078702354444</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="103">
         <v>5</v>
       </c>
@@ -10876,7 +10875,7 @@
         <v>0.55962977128716707</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="103">
         <v>6</v>
       </c>
@@ -10948,7 +10947,7 @@
         <v>0.76917008950649401</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="103">
         <v>7</v>
       </c>
@@ -11020,7 +11019,7 @@
         <v>0.99741508818239577</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="103">
         <v>8</v>
       </c>
@@ -11092,7 +11091,7 @@
         <v>1.2424881265635048</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="103">
         <v>9</v>
       </c>
@@ -11164,7 +11163,7 @@
         <v>1.502953754322661</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="103">
         <v>10</v>
       </c>
@@ -11236,7 +11235,7 @@
         <v>1.7776696472843811</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="103">
         <v>11</v>
       </c>
@@ -11308,7 +11307,7 @@
         <v>2.0656997412371085</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="103">
         <v>12</v>
       </c>
@@ -11380,7 +11379,7 @@
         <v>2.3662594859400139</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B15" s="102"/>
       <c r="S15">
         <v>108</v>
@@ -11405,7 +11404,7 @@
         <v>2.6786794204209206</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="109" t="s">
         <v>189</v>
       </c>
@@ -11477,7 +11476,7 @@
         <v>3.0023798840919413</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="S17">
         <v>126</v>
       </c>
@@ -11501,7 +11500,7 @@
         <v>3.3368528450958954</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="S18">
         <v>135</v>
       </c>
@@ -11525,7 +11524,7 @@
         <v>3.6816484670310974</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>1</v>
       </c>
@@ -11584,7 +11583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="130" t="s">
         <v>204</v>
       </c>
@@ -11646,7 +11645,7 @@
         <v>1.2519889968716062E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
@@ -11726,7 +11725,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -11812,7 +11811,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -11899,7 +11898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
@@ -11986,7 +11985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4</v>
       </c>
@@ -12073,7 +12072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>5</v>
       </c>
@@ -12160,7 +12159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>6</v>
       </c>
@@ -12244,7 +12243,7 @@
         <v>0.18823898426362262</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>7</v>
       </c>
@@ -12328,7 +12327,7 @@
         <v>0.20954031821932695</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>8</v>
       </c>
@@ -12412,7 +12411,7 @@
         <v>0.22824499867590176</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>9</v>
       </c>
@@ -12496,7 +12495,7 @@
         <v>0.24507303838110905</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>10</v>
       </c>
@@ -12580,7 +12579,7 @@
         <v>0.26046562775915616</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>11</v>
       </c>
@@ -12664,7 +12663,7 @@
         <v>0.27471589296172017</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>12</v>
       </c>
@@ -12748,7 +12747,7 @@
         <v>0.28803009395272738</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="T34">
         <v>15</v>
       </c>
@@ -12769,7 +12768,7 @@
         <v>0.30055974470290536</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="T35">
         <v>0</v>
       </c>
@@ -12790,7 +12789,7 @@
         <v>0.31241993448090666</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="130" t="s">
         <v>205</v>
       </c>
@@ -12814,7 +12813,7 @@
         <v>0.32370046367102079</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>1</v>
       </c>
@@ -12880,7 +12879,7 @@
         <v>0.33447296100395407</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0</v>
       </c>
@@ -12964,7 +12963,7 @@
         <v>0.34479562193520197</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1</v>
       </c>
@@ -13041,7 +13040,7 @@
         <v>5.0157550115400476E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2</v>
       </c>
@@ -13118,7 +13117,7 @@
         <v>6.9730610160888259E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3</v>
       </c>
@@ -13195,7 +13194,7 @@
         <v>9.1271288011305476E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>4</v>
       </c>
@@ -13272,7 +13271,7 @@
         <v>0.11459898719940789</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>5</v>
       </c>
@@ -13349,7 +13348,7 @@
         <v>0.13957434524080733</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>6</v>
       </c>
@@ -13426,7 +13425,7 @@
         <v>0.16608562411992447</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>7</v>
       </c>
@@ -13503,7 +13502,7 @@
         <v>0.19404066255340605</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>8</v>
       </c>
@@ -13580,7 +13579,7 @@
         <v>0.22336176952011766</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>9</v>
       </c>
@@ -13657,7 +13656,7 @@
         <v>0.25398230643549052</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>10</v>
       </c>
@@ -13734,7 +13733,7 @@
         <v>0.28584430159298613</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>11</v>
       </c>
@@ -13811,7 +13810,7 @@
         <v>0.31889672774719247</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>12</v>
       </c>
@@ -13888,7 +13887,7 @@
         <v>0.35309422324394252</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="T51">
         <v>0</v>
       </c>
@@ -13902,7 +13901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="103" t="s">
         <v>121</v>
       </c>
@@ -13964,7 +13963,7 @@
         <v>4.4053443849710293E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="103">
         <v>0</v>
       </c>
@@ -14041,7 +14040,7 @@
         <v>1.2258833549045429E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" s="103">
         <v>1</v>
       </c>
@@ -14118,7 +14117,7 @@
         <v>2.230730019634744E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="103">
         <v>2</v>
       </c>
@@ -14195,7 +14194,7 @@
         <v>3.4112883545695832E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" s="103">
         <v>3</v>
       </c>
@@ -14272,7 +14271,7 @@
         <v>4.7424808000308044E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" s="103">
         <v>4</v>
       </c>
@@ -14349,7 +14348,7 @@
         <v>6.2074938106662918E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" s="103">
         <v>5</v>
       </c>
@@ -14426,7 +14425,7 @@
         <v>7.7940447565595289E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" s="103">
         <v>6</v>
       </c>
@@ -14503,7 +14502,7 @@
         <v>9.4926553912857314E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" s="103">
         <v>7</v>
       </c>
@@ -14580,7 +14579,7 @@
         <v>0.11295726248953294</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" s="103">
         <v>8</v>
       </c>
@@ -14657,7 +14656,7 @@
         <v>0.13196989305866444</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="103">
         <v>9</v>
       </c>
@@ -14734,7 +14733,7 @@
         <v>0.15191160682030233</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="103">
         <v>10</v>
       </c>
@@ -14811,7 +14810,7 @@
         <v>0.1727370818982821</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="103">
         <v>11</v>
       </c>
@@ -14888,7 +14887,7 @@
         <v>0.19440689088696808</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" s="103">
         <v>12</v>
       </c>
@@ -14965,7 +14964,7 @@
         <v>0.21688632941032129</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="T66">
         <v>15</v>
       </c>
@@ -14979,7 +14978,7 @@
         <v>0.2401445463437856</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="T67">
         <v>0</v>
       </c>
@@ -14993,7 +14992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="T68">
         <v>1</v>
       </c>
@@ -15007,7 +15006,7 @@
         <v>3.3511586269384017E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="T69">
         <v>2</v>
       </c>
@@ -15021,7 +15020,7 @@
         <v>9.3253312826655776E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="T70">
         <v>3</v>
       </c>
@@ -15035,7 +15034,7 @@
         <v>1.6969229863554931E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="T71">
         <v>4</v>
       </c>
@@ -15049,7 +15048,7 @@
         <v>2.59497723660157E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="T72">
         <v>5</v>
       </c>
@@ -15063,7 +15062,7 @@
         <v>3.6076193044820209E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="T73">
         <v>6</v>
       </c>
@@ -15077,7 +15076,7 @@
         <v>4.7220590758463209E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="T74">
         <v>7</v>
       </c>
@@ -15091,7 +15090,7 @@
         <v>5.9289531174440177E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="T75">
         <v>8</v>
       </c>
@@ -15105,7 +15104,7 @@
         <v>7.2210912989200293E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="T76">
         <v>9</v>
       </c>
@@ -15119,7 +15118,7 @@
         <v>8.5926926838804499E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="T77">
         <v>10</v>
       </c>
@@ -15133,7 +15132,7 @@
         <v>0.10038989167985103</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="T78">
         <v>11</v>
       </c>
@@ -15147,7 +15146,7 @@
         <v>0.1155596128794545</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="T79">
         <v>12</v>
       </c>
@@ -15161,7 +15160,7 @@
         <v>0.1314016139510964</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="T80">
         <v>13</v>
       </c>
@@ -15175,7 +15174,7 @@
         <v>0.14788590234958895</v>
       </c>
     </row>
-    <row r="81" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T81">
         <v>14</v>
       </c>
@@ -15189,7 +15188,7 @@
         <v>0.16498607835246051</v>
       </c>
     </row>
-    <row r="82" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T82">
         <v>15</v>
       </c>
@@ -15203,7 +15202,7 @@
         <v>0.18267867341714722</v>
       </c>
     </row>
-    <row r="83" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T83">
         <v>0</v>
       </c>
@@ -15217,7 +15216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T84">
         <v>1</v>
       </c>
@@ -15231,7 +15230,7 @@
         <v>2.7105553202885191E-3</v>
       </c>
     </row>
-    <row r="85" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T85">
         <v>2</v>
       </c>
@@ -15245,7 +15244,7 @@
         <v>7.5427125766275348E-3</v>
       </c>
     </row>
-    <row r="86" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T86">
         <v>3</v>
       </c>
@@ -15259,7 +15258,7 @@
         <v>1.3725413031217607E-2</v>
       </c>
     </row>
-    <row r="87" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T87">
         <v>4</v>
       </c>
@@ -15273,7 +15272,7 @@
         <v>2.0989246221161571E-2</v>
       </c>
     </row>
-    <row r="88" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T88">
         <v>5</v>
       </c>
@@ -15287,7 +15286,7 @@
         <v>2.9179912943342306E-2</v>
       </c>
     </row>
-    <row r="89" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T89">
         <v>6</v>
       </c>
@@ -15301,7 +15300,7 @@
         <v>3.8193961479064301E-2</v>
       </c>
     </row>
-    <row r="90" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T90">
         <v>7</v>
       </c>
@@ -15315,7 +15314,7 @@
         <v>4.7955818286379445E-2</v>
       </c>
     </row>
-    <row r="91" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T91">
         <v>8</v>
       </c>
@@ -15329,7 +15328,7 @@
         <v>5.8407164857065416E-2</v>
       </c>
     </row>
-    <row r="92" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T92">
         <v>9</v>
       </c>
@@ -15343,7 +15342,7 @@
         <v>6.9501242593147189E-2</v>
       </c>
     </row>
-    <row r="93" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T93">
         <v>10</v>
       </c>
@@ -15357,7 +15356,7 @@
         <v>8.1199485100055854E-2</v>
       </c>
     </row>
-    <row r="94" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T94">
         <v>11</v>
       </c>
@@ -15371,7 +15370,7 @@
         <v>9.3469381300834681E-2</v>
       </c>
     </row>
-    <row r="95" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T95">
         <v>12</v>
       </c>
@@ -15385,7 +15384,7 @@
         <v>0.10628304519116076</v>
       </c>
     </row>
-    <row r="96" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T96">
         <v>13</v>
       </c>
@@ -15399,7 +15398,7 @@
         <v>0.11961621756340539</v>
       </c>
     </row>
-    <row r="97" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T97">
         <v>14</v>
       </c>
@@ -15413,7 +15412,7 @@
         <v>0.13344754523314317</v>
       </c>
     </row>
-    <row r="98" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T98">
         <v>15</v>
       </c>
@@ -15427,7 +15426,7 @@
         <v>0.14775804587515842</v>
       </c>
     </row>
-    <row r="99" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T99">
         <v>0</v>
       </c>
@@ -15441,7 +15440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T100">
         <v>1</v>
       </c>
@@ -15455,7 +15454,7 @@
         <v>2.2791720034349011E-3</v>
       </c>
     </row>
-    <row r="101" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T101">
         <v>2</v>
       </c>
@@ -15469,7 +15468,7 @@
         <v>6.3422942176940816E-3</v>
       </c>
     </row>
-    <row r="102" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T102">
         <v>3</v>
       </c>
@@ -15483,7 +15482,7 @@
         <v>1.1541021458658858E-2</v>
       </c>
     </row>
-    <row r="103" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T103">
         <v>4</v>
       </c>
@@ -15497,7 +15496,7 @@
         <v>1.7648819783313341E-2</v>
       </c>
     </row>
-    <row r="104" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T104">
         <v>5</v>
       </c>
@@ -15511,7 +15510,7 @@
         <v>2.4535946617778085E-2</v>
       </c>
     </row>
-    <row r="105" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T105">
         <v>6</v>
       </c>
@@ -15525,7 +15524,7 @@
         <v>3.2115414524758162E-2</v>
       </c>
     </row>
-    <row r="106" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T106">
         <v>7</v>
       </c>
@@ -15539,7 +15538,7 @@
         <v>4.0323677447945738E-2</v>
       </c>
     </row>
-    <row r="107" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T107">
         <v>8</v>
       </c>
@@ -15553,7 +15552,7 @@
         <v>4.9111698236087159E-2</v>
       </c>
     </row>
-    <row r="108" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T108">
         <v>9</v>
       </c>
@@ -15567,7 +15566,7 @@
         <v>5.8440159895123356E-2</v>
       </c>
     </row>
-    <row r="109" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T109">
         <v>10</v>
       </c>
@@ -15581,7 +15580,7 @@
         <v>6.8276633849951293E-2</v>
       </c>
     </row>
-    <row r="110" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T110">
         <v>11</v>
       </c>
@@ -15595,7 +15594,7 @@
         <v>7.8593783142772475E-2</v>
       </c>
     </row>
-    <row r="111" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T111">
         <v>12</v>
       </c>
@@ -15609,7 +15608,7 @@
         <v>8.9368159810778405E-2</v>
       </c>
     </row>
-    <row r="112" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T112">
         <v>13</v>
       </c>
@@ -15623,7 +15622,7 @@
         <v>0.10057936548525141</v>
       </c>
     </row>
-    <row r="113" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T113">
         <v>14</v>
       </c>
@@ -15637,7 +15636,7 @@
         <v>0.11220944532875939</v>
       </c>
     </row>
-    <row r="114" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T114">
         <v>15</v>
       </c>
@@ -15651,7 +15650,7 @@
         <v>0.12424243804220329</v>
       </c>
     </row>
-    <row r="115" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T115">
         <v>0</v>
       </c>
@@ -15665,7 +15664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T116">
         <v>1</v>
       </c>
@@ -15679,7 +15678,7 @@
         <v>1.9684653569230961E-3</v>
       </c>
     </row>
-    <row r="117" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T117">
         <v>2</v>
       </c>
@@ -15693,7 +15692,7 @@
         <v>5.4776850681427999E-3</v>
       </c>
     </row>
-    <row r="118" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T118">
         <v>3</v>
       </c>
@@ -15707,7 +15706,7 @@
         <v>9.9676991866510991E-3</v>
       </c>
     </row>
-    <row r="119" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T119">
         <v>4</v>
       </c>
@@ -15721,7 +15720,7 @@
         <v>1.5242855862424421E-2</v>
       </c>
     </row>
-    <row r="120" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T120">
         <v>5</v>
       </c>
@@ -15735,7 +15734,7 @@
         <v>2.1191099593896923E-2</v>
       </c>
     </row>
-    <row r="121" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T121">
         <v>6</v>
       </c>
@@ -15749,7 +15748,7 @@
         <v>2.7737301449796845E-2</v>
       </c>
     </row>
-    <row r="122" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T122">
         <v>7</v>
       </c>
@@ -15763,7 +15762,7 @@
         <v>3.4826578248765984E-2</v>
       </c>
     </row>
-    <row r="123" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T123">
         <v>8</v>
       </c>
@@ -15777,7 +15776,7 @@
         <v>4.2416577797420266E-2</v>
       </c>
     </row>
-    <row r="124" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T124">
         <v>9</v>
       </c>
@@ -15791,7 +15790,7 @@
         <v>5.0473342965439143E-2</v>
       </c>
     </row>
-    <row r="125" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T125">
         <v>10</v>
       </c>
@@ -15805,7 +15804,7 @@
         <v>5.8968865982207443E-2</v>
       </c>
     </row>
-    <row r="126" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T126">
         <v>11</v>
       </c>
@@ -15819,7 +15818,7 @@
         <v>6.7879536582984762E-2</v>
       </c>
     </row>
-    <row r="127" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T127">
         <v>12</v>
       </c>
@@ -15833,7 +15832,7 @@
         <v>7.7185103333298671E-2</v>
       </c>
     </row>
-    <row r="128" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T128">
         <v>13</v>
       </c>
@@ -15847,7 +15846,7 @@
         <v>8.6867948658829228E-2</v>
       </c>
     </row>
-    <row r="129" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T129">
         <v>14</v>
       </c>
@@ -15861,7 +15860,7 @@
         <v>9.6912565403722895E-2</v>
       </c>
     </row>
-    <row r="130" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T130">
         <v>15</v>
       </c>
@@ -15875,7 +15874,7 @@
         <v>0.10730516818263769</v>
       </c>
     </row>
-    <row r="131" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T131">
         <v>0</v>
       </c>
@@ -15889,7 +15888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="132" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T132">
         <v>1</v>
       </c>
@@ -15903,7 +15902,7 @@
         <v>1.7337729480682992E-3</v>
       </c>
     </row>
-    <row r="133" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="133" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T133">
         <v>2</v>
       </c>
@@ -15917,7 +15916,7 @@
         <v>4.8246021479537143E-3</v>
       </c>
     </row>
-    <row r="134" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="134" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T134">
         <v>3</v>
       </c>
@@ -15931,7 +15930,7 @@
         <v>8.779289482295536E-3</v>
       </c>
     </row>
-    <row r="135" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="135" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T135">
         <v>4</v>
       </c>
@@ -15945,7 +15944,7 @@
         <v>1.3425509904266109E-2</v>
       </c>
     </row>
-    <row r="136" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="136" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T136">
         <v>5</v>
       </c>
@@ -15959,7 +15958,7 @@
         <v>1.8664567850535448E-2</v>
       </c>
     </row>
-    <row r="137" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="137" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T137">
         <v>6</v>
       </c>
@@ -15973,7 +15972,7 @@
         <v>2.4430291717829896E-2</v>
       </c>
     </row>
-    <row r="138" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="138" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T138">
         <v>7</v>
       </c>
@@ -15987,7 +15986,7 @@
         <v>3.0674341831382953E-2</v>
       </c>
     </row>
-    <row r="139" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="139" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T139">
         <v>8</v>
       </c>
@@ -16001,7 +16000,7 @@
         <v>3.7359415483822905E-2</v>
       </c>
     </row>
-    <row r="140" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="140" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T140">
         <v>9</v>
       </c>
@@ -16015,7 +16014,7 @@
         <v>4.4455604120378016E-2</v>
       </c>
     </row>
-    <row r="141" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="141" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T141">
         <v>10</v>
       </c>
@@ -16029,7 +16028,7 @@
         <v>5.193823922714353E-2</v>
       </c>
     </row>
-    <row r="142" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="142" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T142">
         <v>11</v>
       </c>
@@ -16043,7 +16042,7 @@
         <v>5.9786525498700595E-2</v>
       </c>
     </row>
-    <row r="143" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="143" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T143">
         <v>12</v>
       </c>
@@ -16057,7 +16056,7 @@
         <v>6.7982625999730859E-2</v>
       </c>
     </row>
-    <row r="144" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="144" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T144">
         <v>13</v>
       </c>
@@ -16071,7 +16070,7 @@
         <v>7.65110236302462E-2</v>
       </c>
     </row>
-    <row r="145" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="145" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T145">
         <v>14</v>
       </c>
@@ -16085,7 +16084,7 @@
         <v>8.5358060091803217E-2</v>
       </c>
     </row>
-    <row r="146" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="146" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T146">
         <v>15</v>
       </c>
@@ -16099,7 +16098,7 @@
         <v>9.4511593576520697E-2</v>
       </c>
     </row>
-    <row r="147" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="147" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T147">
         <v>0</v>
       </c>
@@ -16113,7 +16112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="148" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T148">
         <v>1</v>
       </c>
@@ -16127,7 +16126,7 @@
         <v>1.5500982196080732E-3</v>
       </c>
     </row>
-    <row r="149" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="149" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T149">
         <v>2</v>
       </c>
@@ -16141,7 +16140,7 @@
         <v>4.3134870734906237E-3</v>
       </c>
     </row>
-    <row r="150" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="150" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T150">
         <v>3</v>
       </c>
@@ -16155,7 +16154,7 @@
         <v>7.8492175178373463E-3</v>
       </c>
     </row>
-    <row r="151" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="151" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T151">
         <v>4</v>
       </c>
@@ -16169,7 +16168,7 @@
         <v>1.200322050423043E-2</v>
       </c>
     </row>
-    <row r="152" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="152" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T152">
         <v>5</v>
       </c>
@@ -16183,7 +16182,7 @@
         <v>1.6687256210280516E-2</v>
       </c>
     </row>
-    <row r="153" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="153" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T153">
         <v>6</v>
       </c>
@@ -16197,7 +16196,7 @@
         <v>2.1842163207417963E-2</v>
       </c>
     </row>
-    <row r="154" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="154" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T154">
         <v>7</v>
       </c>
@@ -16211,7 +16210,7 @@
         <v>2.7424722893186513E-2</v>
       </c>
     </row>
-    <row r="155" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="155" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T155">
         <v>8</v>
       </c>
@@ -16225,7 +16224,7 @@
         <v>3.3401584383695712E-2</v>
       </c>
     </row>
-    <row r="156" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="156" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T156">
         <v>9</v>
       </c>
@@ -16239,7 +16238,7 @@
         <v>3.9746007616151054E-2</v>
       </c>
     </row>
-    <row r="157" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="157" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T157">
         <v>10</v>
       </c>
@@ -16253,7 +16252,7 @@
         <v>4.6435937442254889E-2</v>
       </c>
     </row>
-    <row r="158" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="158" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T158">
         <v>11</v>
       </c>
@@ -16267,7 +16266,7 @@
         <v>5.3452781597119303E-2</v>
       </c>
     </row>
-    <row r="159" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="159" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T159">
         <v>12</v>
       </c>
@@ -16281,7 +16280,7 @@
         <v>6.0780592778237899E-2</v>
       </c>
     </row>
-    <row r="160" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="160" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T160">
         <v>13</v>
       </c>
@@ -16295,7 +16294,7 @@
         <v>6.8405497756655401E-2</v>
       </c>
     </row>
-    <row r="161" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="161" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T161">
         <v>14</v>
       </c>
@@ -16309,7 +16308,7 @@
         <v>7.6315285184788112E-2</v>
       </c>
     </row>
-    <row r="162" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="162" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T162">
         <v>15</v>
       </c>
@@ -16323,7 +16322,7 @@
         <v>8.4499099549634527E-2</v>
       </c>
     </row>
-    <row r="163" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="163" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T163">
         <v>0</v>
       </c>
@@ -16337,7 +16336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="164" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T164">
         <v>1</v>
       </c>
@@ -16351,7 +16350,7 @@
         <v>1.4023470720788476E-3</v>
       </c>
     </row>
-    <row r="165" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="165" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T165">
         <v>2</v>
       </c>
@@ -16365,7 +16364,7 @@
         <v>3.9023372141469615E-3</v>
       </c>
     </row>
-    <row r="166" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="166" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T166">
         <v>3</v>
       </c>
@@ -16379,7 +16378,7 @@
         <v>7.1010514462962826E-3</v>
       </c>
     </row>
-    <row r="167" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="167" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T167">
         <v>4</v>
       </c>
@@ -16393,7 +16392,7 @@
         <v>1.0859106162885799E-2</v>
       </c>
     </row>
-    <row r="168" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="168" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T168">
         <v>5</v>
       </c>
@@ -16407,7 +16406,7 @@
         <v>1.5096672321469563E-2</v>
       </c>
     </row>
-    <row r="169" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="169" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T169">
         <v>6</v>
       </c>
@@ -16421,7 +16420,7 @@
         <v>1.9760227599987485E-2</v>
       </c>
     </row>
-    <row r="170" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="170" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T170">
         <v>7</v>
       </c>
@@ -16435,7 +16434,7 @@
         <v>2.4810672875656754E-2</v>
       </c>
     </row>
-    <row r="171" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="171" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T171">
         <v>8</v>
       </c>
@@ -16449,7 +16448,7 @@
         <v>3.021783618015729E-2</v>
       </c>
     </row>
-    <row r="172" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="172" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T172">
         <v>9</v>
       </c>
@@ -16463,7 +16462,7 @@
         <v>3.5957526240773134E-2</v>
       </c>
     </row>
-    <row r="173" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="173" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T173">
         <v>10</v>
       </c>
@@ -16477,7 +16476,7 @@
         <v>4.2009790145973745E-2</v>
       </c>
     </row>
-    <row r="174" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="174" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T174">
         <v>11</v>
       </c>
@@ -16491,7 +16490,7 @@
         <v>4.8357807795007389E-2</v>
       </c>
     </row>
-    <row r="175" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="175" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T175">
         <v>12</v>
       </c>
@@ -16505,7 +16504,7 @@
         <v>5.4987151938881401E-2</v>
       </c>
     </row>
-    <row r="176" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="176" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T176">
         <v>13</v>
       </c>
@@ -16519,7 +16518,7 @@
         <v>6.1885271707102771E-2</v>
       </c>
     </row>
-    <row r="177" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="177" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T177">
         <v>14</v>
       </c>
@@ -16533,7 +16532,7 @@
         <v>6.9041119704536483E-2</v>
       </c>
     </row>
-    <row r="178" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="178" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T178">
         <v>15</v>
       </c>
@@ -16547,7 +16546,7 @@
         <v>7.6444875136163853E-2</v>
       </c>
     </row>
-    <row r="179" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="179" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T179">
         <v>0</v>
       </c>
@@ -16561,7 +16560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="180" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T180">
         <v>1</v>
       </c>
@@ -16575,7 +16574,7 @@
         <v>1.2808598830970311E-3</v>
       </c>
     </row>
-    <row r="181" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="181" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T181">
         <v>2</v>
       </c>
@@ -16589,7 +16588,7 @@
         <v>3.5642725595083189E-3</v>
       </c>
     </row>
-    <row r="182" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="182" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T182">
         <v>3</v>
       </c>
@@ -16603,7 +16602,7 @@
         <v>6.4858779302658003E-3</v>
       </c>
     </row>
-    <row r="183" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="183" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T183">
         <v>4</v>
       </c>
@@ -16617,7 +16616,7 @@
         <v>9.918367376567757E-3</v>
       </c>
     </row>
-    <row r="184" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="184" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T184">
         <v>5</v>
       </c>
@@ -16631,7 +16630,7 @@
         <v>1.3788827551917527E-2</v>
       </c>
     </row>
-    <row r="185" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="185" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T185">
         <v>6</v>
       </c>
@@ -16645,7 +16644,7 @@
         <v>1.804837284408551E-2</v>
       </c>
     </row>
-    <row r="186" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="186" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T186">
         <v>7</v>
       </c>
@@ -16659,7 +16658,7 @@
         <v>2.2661291339213924E-2</v>
       </c>
     </row>
-    <row r="187" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="187" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T187">
         <v>8</v>
       </c>
@@ -16673,7 +16672,7 @@
         <v>2.7600024906662555E-2</v>
       </c>
     </row>
-    <row r="188" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="188" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T188">
         <v>9</v>
       </c>
@@ -16687,7 +16686,7 @@
         <v>3.2842477995793581E-2</v>
       </c>
     </row>
-    <row r="189" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="189" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T189">
         <v>10</v>
       </c>
@@ -16701,7 +16700,7 @@
         <v>3.8370426242297112E-2</v>
       </c>
     </row>
-    <row r="190" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="190" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T190">
         <v>11</v>
       </c>
@@ -16715,7 +16714,7 @@
         <v>4.4168506693084378E-2</v>
       </c>
     </row>
-    <row r="191" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="191" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T191">
         <v>12</v>
       </c>
@@ -16729,7 +16728,7 @@
         <v>5.0223541950900376E-2</v>
       </c>
     </row>
-    <row r="192" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="192" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T192">
         <v>13</v>
       </c>
@@ -16743,7 +16742,7 @@
         <v>5.6524068443828769E-2</v>
       </c>
     </row>
-    <row r="193" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="193" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T193">
         <v>14</v>
       </c>
@@ -16757,7 +16756,7 @@
         <v>6.3059995827244544E-2</v>
       </c>
     </row>
-    <row r="194" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="194" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T194">
         <v>15</v>
       </c>
@@ -16771,7 +16770,7 @@
         <v>6.9822354094642158E-2</v>
       </c>
     </row>
-    <row r="195" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="195" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T195">
         <v>0</v>
       </c>
@@ -16785,7 +16784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="196" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T196">
         <v>1</v>
       </c>
@@ -16799,7 +16798,7 @@
         <v>1.1791643438735658E-3</v>
       </c>
     </row>
-    <row r="197" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="197" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T197">
         <v>2</v>
       </c>
@@ -16813,7 +16812,7 @@
         <v>3.2812824958315875E-3</v>
       </c>
     </row>
-    <row r="198" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="198" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T198">
         <v>3</v>
       </c>
@@ -16827,7 +16826,7 @@
         <v>5.9709232016805598E-3</v>
       </c>
     </row>
-    <row r="199" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="199" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T199">
         <v>4</v>
       </c>
@@ -16841,7 +16840,7 @@
         <v>9.130885676276207E-3</v>
       </c>
     </row>
-    <row r="200" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="200" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T200">
         <v>5</v>
       </c>
@@ -16855,7 +16854,7 @@
         <v>1.2694045623264212E-2</v>
       </c>
     </row>
-    <row r="201" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="201" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T201">
         <v>6</v>
       </c>
@@ -16869,7 +16868,7 @@
         <v>1.6615398767289961E-2</v>
       </c>
     </row>
-    <row r="202" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="202" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T202">
         <v>7</v>
       </c>
@@ -16883,7 +16882,7 @@
         <v>2.0862068588424699E-2</v>
       </c>
     </row>
-    <row r="203" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="203" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T203">
         <v>8</v>
       </c>
@@ -16897,7 +16896,7 @@
         <v>2.5408684969715298E-2</v>
       </c>
     </row>
-    <row r="204" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="204" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T204">
         <v>9</v>
       </c>
@@ -16911,7 +16910,7 @@
         <v>3.0234906665554638E-2</v>
       </c>
     </row>
-    <row r="205" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="205" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T205">
         <v>10</v>
       </c>
@@ -16925,7 +16924,7 @@
         <v>3.5323956258781354E-2</v>
       </c>
     </row>
-    <row r="206" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="206" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T206">
         <v>11</v>
       </c>
@@ -16939,7 +16938,7 @@
         <v>4.0661690557983222E-2</v>
       </c>
     </row>
-    <row r="207" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="207" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T207">
         <v>12</v>
       </c>
@@ -16953,7 +16952,7 @@
         <v>4.6235978402528848E-2</v>
       </c>
     </row>
-    <row r="208" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="208" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T208">
         <v>13</v>
       </c>
@@ -16967,7 +16966,7 @@
         <v>5.2036266385729828E-2</v>
       </c>
     </row>
-    <row r="209" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="209" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T209">
         <v>14</v>
       </c>
@@ -16981,7 +16980,7 @@
         <v>5.8053265299019156E-2</v>
       </c>
     </row>
-    <row r="210" spans="20:23" x14ac:dyDescent="0.25">
+    <row r="210" spans="20:23" x14ac:dyDescent="0.3">
       <c r="T210">
         <v>15</v>
       </c>
@@ -17009,20 +17008,20 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -17072,7 +17071,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>54</v>
       </c>
@@ -17122,7 +17121,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>213</v>
       </c>
@@ -17172,7 +17171,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>185</v>
       </c>
@@ -17195,7 +17194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>172</v>
       </c>
@@ -17224,12 +17223,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>184</v>
       </c>
@@ -17240,7 +17239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>67</v>
       </c>
@@ -17248,7 +17247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>174</v>
       </c>
@@ -17256,7 +17255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>157</v>
       </c>
@@ -17323,7 +17322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>52</v>
       </c>
@@ -17388,7 +17387,7 @@
         <v>0.25859671645140148</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>53</v>
       </c>
@@ -17453,7 +17452,7 @@
         <v>5.0228542511324044</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -17521,7 +17520,7 @@
         <v>239521.72355637696</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>161</v>
       </c>
@@ -17586,7 +17585,7 @@
         <v>7067</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>83</v>
       </c>
@@ -17651,7 +17650,7 @@
         <v>246588.72355637696</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -17719,7 +17718,7 @@
         <v>1.0343868658056059</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>78</v>
       </c>
@@ -17784,72 +17783,72 @@
         <v>0.47409398016090271</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>83</v>
       </c>
       <c r="C23" s="108">
         <f>C22*'Input params'!$D$52</f>
-        <v>1119.1613243558936</v>
+        <v>4945.0123400799048</v>
       </c>
       <c r="D23" s="108">
         <f>D22*'Input params'!$D$52</f>
-        <v>1886.4824073287991</v>
+        <v>8335.4191934334867</v>
       </c>
       <c r="E23" s="108">
         <f>E22*'Input params'!$D$52</f>
-        <v>2351.2449856327294</v>
+        <v>10388.971826913736</v>
       </c>
       <c r="F23" s="108">
         <f>F22*'Input params'!$D$52</f>
-        <v>2715.1327555606958</v>
+        <v>11996.809297292342</v>
       </c>
       <c r="G23" s="108">
         <f>G22*'Input params'!$D$52</f>
-        <v>3022.3802143510211</v>
+        <v>13354.381652690499</v>
       </c>
       <c r="H23" s="108">
         <f>H22*'Input params'!$D$52</f>
-        <v>3292.1739066013924</v>
+        <v>14546.464606612833</v>
       </c>
       <c r="I23" s="108">
         <f>I22*'Input params'!$D$52</f>
-        <v>3534.8991953837435</v>
+        <v>15618.945867497165</v>
       </c>
       <c r="J23" s="108">
         <f>J22*'Input params'!$D$52</f>
-        <v>3756.919749610182</v>
+        <v>16599.943295220986</v>
       </c>
       <c r="K23" s="108">
         <f>K22*'Input params'!$D$52</f>
-        <v>3962.4635798548366</v>
+        <v>17508.138347057753</v>
       </c>
       <c r="L23" s="108">
         <f>L22*'Input params'!$D$52</f>
-        <v>4154.505750960986</v>
+        <v>18356.67634177643</v>
       </c>
       <c r="M23" s="108">
         <f>M22*'Input params'!$D$52</f>
-        <v>4335.2316792304482</v>
+        <v>19155.213537456621</v>
       </c>
       <c r="N23" s="108">
         <f>N22*'Input params'!$D$52</f>
-        <v>4506.3013961617698</v>
+        <v>19911.084780350244</v>
       </c>
       <c r="O23" s="108">
         <f>O22*'Input params'!$D$52</f>
-        <v>4669.0101699258903</v>
+        <v>20630.013210588761</v>
       </c>
       <c r="P23" s="108">
         <f>P22*'Input params'!$D$52</f>
-        <v>4824.3911633064927</v>
+        <v>21316.563856111796</v>
       </c>
       <c r="Q23" s="108">
         <f>Q22*'Input params'!$D$52</f>
-        <v>4973.2837794062825</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+        <v>21974.445618049904</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>79</v>
       </c>
@@ -17917,7 +17916,7 @@
         <v>6.2785678139155054</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>80</v>
       </c>
@@ -17982,7 +17981,7 @@
         <v>2.8776769147112731</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>82</v>
       </c>
@@ -18047,7 +18046,7 @@
         <v>5.6245503332993074</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>81</v>
       </c>
@@ -18112,72 +18111,72 @@
         <v>5.6245503332993074</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>83</v>
       </c>
       <c r="C29" s="55">
         <f>C26*'Input params'!$D$52+'Input params'!$D$53*LCC_standard!C27+'Input params'!$D$54*LCC_standard!C28</f>
-        <v>1471.4897776547728</v>
+        <v>2706.0601733281237</v>
       </c>
       <c r="D29" s="55">
         <f>D26*'Input params'!$D$52+'Input params'!$D$53*LCC_standard!D27+'Input params'!$D$54*LCC_standard!D28</f>
-        <v>7244.5096604245427</v>
+        <v>13322.606357898214</v>
       </c>
       <c r="E29" s="55">
         <f>E26*'Input params'!$D$52+'Input params'!$D$53*LCC_standard!E27+'Input params'!$D$54*LCC_standard!E28</f>
-        <v>16704.501989384764</v>
+        <v>30719.470998159886</v>
       </c>
       <c r="F29" s="55">
         <f>F26*'Input params'!$D$52+'Input params'!$D$53*LCC_standard!F27+'Input params'!$D$54*LCC_standard!F28</f>
-        <v>29673.136380642834</v>
+        <v>54568.70567280965</v>
       </c>
       <c r="G29" s="55">
         <f>G26*'Input params'!$D$52+'Input params'!$D$53*LCC_standard!G27+'Input params'!$D$54*LCC_standard!G28</f>
-        <v>45927.063433238516</v>
+        <v>84459.572279651213</v>
       </c>
       <c r="H29" s="55">
         <f>H26*'Input params'!$D$52+'Input params'!$D$53*LCC_standard!H27+'Input params'!$D$54*LCC_standard!H28</f>
-        <v>65240.332283264754</v>
+        <v>119976.5486429733</v>
       </c>
       <c r="I29" s="55">
         <f>I26*'Input params'!$D$52+'Input params'!$D$53*LCC_standard!I27+'Input params'!$D$54*LCC_standard!I28</f>
-        <v>87385.896359003862</v>
+        <v>160702.09758749558</v>
       </c>
       <c r="J29" s="55">
         <f>J26*'Input params'!$D$52+'Input params'!$D$53*LCC_standard!J27+'Input params'!$D$54*LCC_standard!J28</f>
-        <v>112136.8882317091</v>
+        <v>206219.01138070127</v>
       </c>
       <c r="K29" s="55">
         <f>K26*'Input params'!$D$52+'Input params'!$D$53*LCC_standard!K27+'Input params'!$D$54*LCC_standard!K28</f>
-        <v>139268.05114827998</v>
+        <v>256113.04431215813</v>
       </c>
       <c r="L29" s="55">
         <f>L26*'Input params'!$D$52+'Input params'!$D$53*LCC_standard!L27+'Input params'!$D$54*LCC_standard!L28</f>
-        <v>168557.17249601317</v>
+        <v>309975.54882591369</v>
       </c>
       <c r="M29" s="55">
         <f>M26*'Input params'!$D$52+'Input params'!$D$53*LCC_standard!M27+'Input params'!$D$54*LCC_standard!M28</f>
-        <v>199786.42460284301</v>
+        <v>367405.94124345592</v>
       </c>
       <c r="N29" s="55">
         <f>N26*'Input params'!$D$52+'Input params'!$D$53*LCC_standard!N27+'Input params'!$D$54*LCC_standard!N28</f>
-        <v>232743.56911714189</v>
+        <v>428013.91661036818</v>
       </c>
       <c r="O29" s="55">
         <f>O26*'Input params'!$D$52+'Input params'!$D$53*LCC_standard!O27+'Input params'!$D$54*LCC_standard!O28</f>
-        <v>267223.00810655183</v>
+        <v>491421.38166027429</v>
       </c>
       <c r="P29" s="55">
         <f>P26*'Input params'!$D$52+'Input params'!$D$53*LCC_standard!P27+'Input params'!$D$54*LCC_standard!P28</f>
-        <v>303026.67870702618</v>
+        <v>557264.10006863379</v>
       </c>
       <c r="Q29" s="55">
         <f>Q26*'Input params'!$D$52+'Input params'!$D$53*LCC_standard!Q27+'Input params'!$D$54*LCC_standard!Q28</f>
-        <v>339964.7952062671</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+        <v>625193.05713937816</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -18245,72 +18244,72 @@
         <v>1.7183184393123956</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>83</v>
       </c>
       <c r="C33" s="55">
         <f>C32*SUM('Input params'!$D$71:$D$73)</f>
-        <v>55.794250830733674</v>
+        <v>77.855084388984764</v>
       </c>
       <c r="D33" s="55">
         <f>D32*SUM('Input params'!$D$71:$D$73)</f>
-        <v>274.68895487918928</v>
+        <v>383.29991790231367</v>
       </c>
       <c r="E33" s="55">
         <f>E32*SUM('Input params'!$D$71:$D$73)</f>
-        <v>633.38202422557629</v>
+        <v>883.8188561066803</v>
       </c>
       <c r="F33" s="55">
         <f>F32*SUM('Input params'!$D$71:$D$73)</f>
-        <v>1125.1117332223657</v>
+        <v>1569.9766128737597</v>
       </c>
       <c r="G33" s="55">
         <f>G32*SUM('Input params'!$D$71:$D$73)</f>
-        <v>1741.409377098852</v>
+        <v>2429.9559899300421</v>
       </c>
       <c r="H33" s="55">
         <f>H32*SUM('Input params'!$D$71:$D$73)</f>
-        <v>2473.7076118152117</v>
+        <v>3451.8021481428464</v>
       </c>
       <c r="I33" s="55">
         <f>I32*SUM('Input params'!$D$71:$D$73)</f>
-        <v>3313.3975475476473</v>
+        <v>4623.5022755513019</v>
       </c>
       <c r="J33" s="55">
         <f>J32*SUM('Input params'!$D$71:$D$73)</f>
-        <v>4251.8770870087474</v>
+        <v>5933.053038473854</v>
       </c>
       <c r="K33" s="55">
         <f>K32*SUM('Input params'!$D$71:$D$73)</f>
-        <v>5280.6052046510304</v>
+        <v>7368.5363225014562</v>
       </c>
       <c r="L33" s="55">
         <f>L32*SUM('Input params'!$D$71:$D$73)</f>
-        <v>6391.1562991287083</v>
+        <v>8918.1950757150098</v>
       </c>
       <c r="M33" s="55">
         <f>M32*SUM('Input params'!$D$71:$D$73)</f>
-        <v>7575.2710322135008</v>
+        <v>10570.504249114201</v>
       </c>
       <c r="N33" s="55">
         <f>N32*SUM('Input params'!$D$71:$D$73)</f>
-        <v>8824.9019950776801</v>
+        <v>12314.234519174352</v>
       </c>
       <c r="O33" s="55">
         <f>O32*SUM('Input params'!$D$71:$D$73)</f>
-        <v>10132.253562646263</v>
+        <v>14138.507900457158</v>
       </c>
       <c r="P33" s="55">
         <f>P32*SUM('Input params'!$D$71:$D$73)</f>
-        <v>11489.815815866688</v>
+        <v>16032.845080616167</v>
       </c>
       <c r="Q33" s="128">
         <f>Q32*SUM('Input params'!$D$71:$D$73)</f>
-        <v>12890.392679171968</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>17987.204683305328</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -18360,7 +18359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
         <v>16</v>
       </c>
@@ -18424,7 +18423,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B38" s="47" t="s">
         <v>211</v>
       </c>
@@ -18474,7 +18473,7 @@
         <v>0.34479562193520197</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>212</v>
       </c>
@@ -18524,52 +18523,52 @@
         <v>0.37249131282242387</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C48" s="129"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C49" s="129"/>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C50" s="129"/>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C51" s="129"/>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C52" s="129"/>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C53" s="129"/>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C54" s="129"/>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C55" s="129"/>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C56" s="129"/>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C57" s="129"/>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C58" s="129"/>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C59" s="129"/>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C60" s="129"/>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C61" s="129"/>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C62" s="129"/>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C63" s="129"/>
     </row>
   </sheetData>
@@ -18586,20 +18585,20 @@
       <selection activeCell="C13" sqref="C13:Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -18649,7 +18648,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>54</v>
       </c>
@@ -18699,7 +18698,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>185</v>
       </c>
@@ -18722,7 +18721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>172</v>
       </c>
@@ -18751,12 +18750,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>184</v>
       </c>
@@ -18767,7 +18766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>67</v>
       </c>
@@ -18775,7 +18774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>174</v>
       </c>
@@ -18783,7 +18782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>157</v>
       </c>
@@ -18850,7 +18849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>52</v>
       </c>
@@ -18910,7 +18909,7 @@
         <v>0.25859671645140148</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>53</v>
       </c>
@@ -18970,7 +18969,7 @@
         <v>5.0228542511324044</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -19038,7 +19037,7 @@
         <v>239521.72355637696</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>161</v>
       </c>
@@ -19103,7 +19102,7 @@
         <v>7067</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>83</v>
       </c>
@@ -19168,7 +19167,7 @@
         <v>246588.72355637696</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -19236,7 +19235,7 @@
         <v>1.0343868658056059</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>78</v>
       </c>
@@ -19301,7 +19300,7 @@
         <v>0.47409398016090271</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>83</v>
       </c>
@@ -19311,7 +19310,7 @@
       </c>
       <c r="D23" s="108">
         <f>D22*'Input params'!$D$52</f>
-        <v>19231.813333333332</v>
+        <v>84975.733333333323</v>
       </c>
       <c r="E23" s="108">
         <f>E22*'Input params'!$D$52</f>
@@ -19319,7 +19318,7 @@
       </c>
       <c r="F23" s="108">
         <f>F22*'Input params'!$D$52</f>
-        <v>19231.813333333332</v>
+        <v>84975.733333333323</v>
       </c>
       <c r="G23" s="108">
         <f>G22*'Input params'!$D$52</f>
@@ -19327,46 +19326,46 @@
       </c>
       <c r="H23" s="108">
         <f>H22*'Input params'!$D$52</f>
-        <v>3292.1739066013924</v>
+        <v>14546.464606612833</v>
       </c>
       <c r="I23" s="108">
         <f>I22*'Input params'!$D$52</f>
-        <v>3534.8991953837435</v>
+        <v>15618.945867497165</v>
       </c>
       <c r="J23" s="108">
         <f>J22*'Input params'!$D$52</f>
-        <v>3756.919749610182</v>
+        <v>16599.943295220986</v>
       </c>
       <c r="K23" s="108">
         <f>K22*'Input params'!$D$52</f>
-        <v>3962.4635798548366</v>
+        <v>17508.138347057753</v>
       </c>
       <c r="L23" s="108">
         <f>L22*'Input params'!$D$52</f>
-        <v>4154.505750960986</v>
+        <v>18356.67634177643</v>
       </c>
       <c r="M23" s="108">
         <f>M22*'Input params'!$D$52</f>
-        <v>4335.2316792304482</v>
+        <v>19155.213537456621</v>
       </c>
       <c r="N23" s="108">
         <f>N22*'Input params'!$D$52</f>
-        <v>4506.3013961617698</v>
+        <v>19911.084780350244</v>
       </c>
       <c r="O23" s="108">
         <f>O22*'Input params'!$D$52</f>
-        <v>4669.0101699258903</v>
+        <v>20630.013210588761</v>
       </c>
       <c r="P23" s="108">
         <f>P22*'Input params'!$D$52</f>
-        <v>4824.3911633064927</v>
+        <v>21316.563856111796</v>
       </c>
       <c r="Q23" s="108">
         <f>Q22*'Input params'!$D$52</f>
-        <v>4973.2837794062825</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+        <v>21974.445618049904</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>79</v>
       </c>
@@ -19434,7 +19433,7 @@
         <v>6.2785678139155054</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>80</v>
       </c>
@@ -19499,7 +19498,7 @@
         <v>2.8776769147112731</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>82</v>
       </c>
@@ -19564,7 +19563,7 @@
         <v>5.6245503332993074</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>81</v>
       </c>
@@ -19629,7 +19628,7 @@
         <v>5.6245503332993074</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>83</v>
       </c>
@@ -19655,46 +19654,46 @@
       </c>
       <c r="H29" s="55">
         <f>H26*'Input params'!$D$52+'Input params'!$D$53*LCC_current_2018_standard_cross!H27+'Input params'!$D$54*LCC_current_2018_standard_cross!H28</f>
-        <v>60390.538487814534</v>
+        <v>111057.80925516854</v>
       </c>
       <c r="I29" s="55">
         <f>I26*'Input params'!$D$52+'Input params'!$D$53*LCC_current_2018_standard_cross!I27+'Input params'!$D$54*LCC_current_2018_standard_cross!I28</f>
-        <v>87385.896359003862</v>
+        <v>160702.09758749558</v>
       </c>
       <c r="J29" s="55">
         <f>J26*'Input params'!$D$52+'Input params'!$D$53*LCC_current_2018_standard_cross!J27+'Input params'!$D$54*LCC_current_2018_standard_cross!J28</f>
-        <v>112136.8882317091</v>
+        <v>206219.01138070127</v>
       </c>
       <c r="K29" s="55">
         <f>K26*'Input params'!$D$52+'Input params'!$D$53*LCC_current_2018_standard_cross!K27+'Input params'!$D$54*LCC_current_2018_standard_cross!K28</f>
-        <v>139268.05114827998</v>
+        <v>256113.04431215813</v>
       </c>
       <c r="L29" s="55">
         <f>L26*'Input params'!$D$52+'Input params'!$D$53*LCC_current_2018_standard_cross!L27+'Input params'!$D$54*LCC_current_2018_standard_cross!L28</f>
-        <v>168557.17249601317</v>
+        <v>309975.54882591369</v>
       </c>
       <c r="M29" s="55">
         <f>M26*'Input params'!$D$52+'Input params'!$D$53*LCC_current_2018_standard_cross!M27+'Input params'!$D$54*LCC_current_2018_standard_cross!M28</f>
-        <v>199786.42460284301</v>
+        <v>367405.94124345592</v>
       </c>
       <c r="N29" s="55">
         <f>N26*'Input params'!$D$52+'Input params'!$D$53*LCC_current_2018_standard_cross!N27+'Input params'!$D$54*LCC_current_2018_standard_cross!N28</f>
-        <v>232743.56911714189</v>
+        <v>428013.91661036818</v>
       </c>
       <c r="O29" s="55">
         <f>O26*'Input params'!$D$52+'Input params'!$D$53*LCC_current_2018_standard_cross!O27+'Input params'!$D$54*LCC_current_2018_standard_cross!O28</f>
-        <v>267223.00810655183</v>
+        <v>491421.38166027429</v>
       </c>
       <c r="P29" s="55">
         <f>P26*'Input params'!$D$52+'Input params'!$D$53*LCC_current_2018_standard_cross!P27+'Input params'!$D$54*LCC_current_2018_standard_cross!P28</f>
-        <v>303026.67870702618</v>
+        <v>557264.10006863379</v>
       </c>
       <c r="Q29" s="55">
         <f>Q26*'Input params'!$D$52+'Input params'!$D$53*LCC_current_2018_standard_cross!Q27+'Input params'!$D$54*LCC_current_2018_standard_cross!Q28</f>
-        <v>339964.7952062671</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+        <v>625193.05713937816</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -19762,7 +19761,7 @@
         <v>1.7183184393123956</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>83</v>
       </c>
@@ -19788,51 +19787,51 @@
       </c>
       <c r="H33" s="55">
         <f>H32*SUM('Input params'!$D$71:$D$73)</f>
-        <v>2289.8187288547429</v>
+        <v>3195.2043035993856</v>
       </c>
       <c r="I33" s="55">
         <f>I32*SUM('Input params'!$D$71:$D$73)</f>
-        <v>3313.3975475476473</v>
+        <v>4623.5022755513019</v>
       </c>
       <c r="J33" s="55">
         <f>J32*SUM('Input params'!$D$71:$D$73)</f>
-        <v>4251.8770870087474</v>
+        <v>5933.053038473854</v>
       </c>
       <c r="K33" s="55">
         <f>K32*SUM('Input params'!$D$71:$D$73)</f>
-        <v>5280.6052046510304</v>
+        <v>7368.5363225014562</v>
       </c>
       <c r="L33" s="55">
         <f>L32*SUM('Input params'!$D$71:$D$73)</f>
-        <v>6391.1562991287083</v>
+        <v>8918.1950757150098</v>
       </c>
       <c r="M33" s="55">
         <f>M32*SUM('Input params'!$D$71:$D$73)</f>
-        <v>7575.2710322135008</v>
+        <v>10570.504249114201</v>
       </c>
       <c r="N33" s="55">
         <f>N32*SUM('Input params'!$D$71:$D$73)</f>
-        <v>8824.9019950776801</v>
+        <v>12314.234519174352</v>
       </c>
       <c r="O33" s="55">
         <f>O32*SUM('Input params'!$D$71:$D$73)</f>
-        <v>10132.253562646263</v>
+        <v>14138.507900457158</v>
       </c>
       <c r="P33" s="55">
         <f>P32*SUM('Input params'!$D$71:$D$73)</f>
-        <v>11489.815815866688</v>
+        <v>16032.845080616167</v>
       </c>
       <c r="Q33" s="55">
         <f>Q32*SUM('Input params'!$D$71:$D$73)</f>
-        <v>12890.392679171968</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>17987.204683305328</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
         <v>16</v>
       </c>
@@ -19882,7 +19881,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B38" s="47" t="s">
         <v>211</v>
       </c>
@@ -19932,7 +19931,7 @@
         <v>0.34479562193520197</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>212</v>
       </c>
@@ -19996,16 +19995,16 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="13" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="18.88671875" customWidth="1"/>
+    <col min="8" max="13" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="51" t="s">
         <v>190</v>
       </c>
@@ -20055,7 +20054,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="51" t="s">
         <v>27</v>
       </c>
@@ -20105,7 +20104,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="52" t="s">
         <v>29</v>
       </c>
@@ -20170,202 +20169,202 @@
         <v>142398.84355864217</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="54" t="s">
         <v>127</v>
       </c>
       <c r="B4" s="55">
         <f>LCC_standard!C23/(1+'Input params'!$D$2)^('Results - Standard'!B2-2014)</f>
-        <v>1119.1613243558936</v>
+        <v>4945.0123400799048</v>
       </c>
       <c r="C4" s="55">
         <f>LCC_standard!D23/(1+'Input params'!$D$2)^('Results - Standard'!C2-2014)</f>
-        <v>1813.9253916623068</v>
+        <v>8014.8261475321988</v>
       </c>
       <c r="D4" s="55">
         <f>LCC_standard!E23/(1+'Input params'!$D$2)^('Results - Standard'!D2-2014)</f>
-        <v>2173.8581597935736</v>
+        <v>9605.1884494394726</v>
       </c>
       <c r="E4" s="55">
         <f>LCC_standard!F23/(1+'Input params'!$D$2)^('Results - Standard'!E2-2014)</f>
-        <v>2413.7431330015856</v>
+        <v>10665.119780962268</v>
       </c>
       <c r="F4" s="55">
         <f>LCC_standard!G23/(1+'Input params'!$D$2)^('Results - Standard'!F2-2014)</f>
-        <v>2583.5432741125737</v>
+        <v>11415.381405330314</v>
       </c>
       <c r="G4" s="55">
         <f>LCC_standard!H23/(1+'Input params'!$D$2)^('Results - Standard'!G2-2014)</f>
-        <v>2705.9269740015143</v>
+        <v>11956.133567690595</v>
       </c>
       <c r="H4" s="55">
         <f>LCC_standard!I23/(1+'Input params'!$D$2)^('Results - Standard'!H2-2014)</f>
-        <v>2793.682181103577</v>
+        <v>12343.879795675841</v>
       </c>
       <c r="I4" s="55">
         <f>LCC_standard!J23/(1+'Input params'!$D$2)^('Results - Standard'!I2-2014)</f>
-        <v>2854.9502404994123</v>
+        <v>12614.592608182584</v>
       </c>
       <c r="J4" s="55">
         <f>LCC_standard!K23/(1+'Input params'!$D$2)^('Results - Standard'!J2-2014)</f>
-        <v>2895.333325477025</v>
+        <v>12793.025198014722</v>
       </c>
       <c r="K4" s="55">
         <f>LCC_standard!L23/(1+'Input params'!$D$2)^('Results - Standard'!K2-2014)</f>
-        <v>2918.9006335111567</v>
+        <v>12897.157307045851</v>
       </c>
       <c r="L4" s="55">
         <f>LCC_standard!M23/(1+'Input params'!$D$2)^('Results - Standard'!L2-2014)</f>
-        <v>2928.7271860465885</v>
+        <v>12940.575912112567</v>
       </c>
       <c r="M4" s="55">
         <f>LCC_standard!N23/(1+'Input params'!$D$2)^('Results - Standard'!M2-2014)</f>
-        <v>2927.2074588236173</v>
+        <v>12933.861000055116</v>
       </c>
       <c r="N4" s="55">
         <f>LCC_standard!O23/(1+'Input params'!$D$2)^('Results - Standard'!N2-2014)</f>
-        <v>2916.2499765950297</v>
+        <v>12885.445384131506</v>
       </c>
       <c r="O4" s="55">
         <f>LCC_standard!P23/(1+'Input params'!$D$2)^('Results - Standard'!O2-2014)</f>
-        <v>2897.4043140590129</v>
+        <v>12802.17585741585</v>
       </c>
       <c r="P4" s="55">
         <f>LCC_standard!Q23/(1+'Input params'!$D$2)^('Results - Standard'!P2-2014)</f>
-        <v>2871.9474624089862</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>12689.694803246635</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="54" t="s">
         <v>128</v>
       </c>
       <c r="B5" s="55">
         <f>LCC_standard!C29/(1+'Input params'!$D$2)^('Results - Standard'!B2-2014)</f>
-        <v>1471.4897776547728</v>
+        <v>2706.0601733281237</v>
       </c>
       <c r="C5" s="55">
         <f>LCC_standard!D29/(1+'Input params'!$D$2)^('Results - Standard'!C2-2014)</f>
-        <v>6965.8746734851375</v>
+        <v>12810.198421055975</v>
       </c>
       <c r="D5" s="55">
         <f>LCC_standard!E29/(1+'Input params'!$D$2)^('Results - Standard'!D2-2014)</f>
-        <v>15444.251099653071</v>
+        <v>28401.877771967349</v>
       </c>
       <c r="E5" s="55">
         <f>LCC_standard!F29/(1+'Input params'!$D$2)^('Results - Standard'!E2-2014)</f>
-        <v>26379.310192736928</v>
+        <v>48511.380640512674</v>
       </c>
       <c r="F5" s="55">
         <f>LCC_standard!G29/(1+'Input params'!$D$2)^('Results - Standard'!F2-2014)</f>
-        <v>39258.646304420348</v>
+        <v>72196.396357223901</v>
       </c>
       <c r="G5" s="55">
         <f>LCC_standard!H29/(1+'Input params'!$D$2)^('Results - Standard'!G2-2014)</f>
-        <v>53622.79755760252</v>
+        <v>98611.977505091651</v>
       </c>
       <c r="H5" s="55">
         <f>LCC_standard!I29/(1+'Input params'!$D$2)^('Results - Standard'!H2-2014)</f>
-        <v>69062.343236469809</v>
+        <v>127005.20203870116</v>
       </c>
       <c r="I5" s="55">
         <f>LCC_standard!J29/(1+'Input params'!$D$2)^('Results - Standard'!I2-2014)</f>
-        <v>85214.818884324559</v>
+        <v>156709.50016911389</v>
       </c>
       <c r="J5" s="55">
         <f>LCC_standard!K29/(1+'Input params'!$D$2)^('Results - Standard'!J2-2014)</f>
-        <v>101761.80084376346</v>
+        <v>187139.29285213299</v>
       </c>
       <c r="K5" s="55">
         <f>LCC_standard!L29/(1+'Input params'!$D$2)^('Results - Standard'!K2-2014)</f>
-        <v>118426.03358237172</v>
+        <v>217784.70895885507</v>
       </c>
       <c r="L5" s="55">
         <f>LCC_standard!M29/(1+'Input params'!$D$2)^('Results - Standard'!L2-2014)</f>
-        <v>134968.5498794977</v>
+        <v>248206.28931779548</v>
       </c>
       <c r="M5" s="55">
         <f>LCC_standard!N29/(1+'Input params'!$D$2)^('Results - Standard'!M2-2014)</f>
-        <v>151185.78444247285</v>
+        <v>278029.67867380584</v>
       </c>
       <c r="N5" s="55">
         <f>LCC_standard!O29/(1+'Input params'!$D$2)^('Results - Standard'!N2-2014)</f>
-        <v>166906.7024432621</v>
+        <v>306940.34508556646</v>
       </c>
       <c r="O5" s="55">
         <f>LCC_standard!P29/(1+'Input params'!$D$2)^('Results - Standard'!O2-2014)</f>
-        <v>181989.97063889893</v>
+        <v>334678.37763438351</v>
       </c>
       <c r="P5" s="55">
         <f>LCC_standard!Q29/(1+'Input params'!$D$2)^('Results - Standard'!P2-2014)</f>
-        <v>196321.19826823732</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>361033.41245118034</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="54" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="55">
         <f>LCC_standard!C33/(1+'Input params'!$D$2)^('Results - Standard'!B2-2014)</f>
-        <v>55.794250830733674</v>
+        <v>77.855084388984764</v>
       </c>
       <c r="C6" s="55">
         <f>LCC_standard!D33/(1+'Input params'!$D$2)^('Results - Standard'!C2-2014)</f>
-        <v>264.12399507614356</v>
+        <v>368.55761336760929</v>
       </c>
       <c r="D6" s="55">
         <f>LCC_standard!E33/(1+'Input params'!$D$2)^('Results - Standard'!D2-2014)</f>
-        <v>585.59728571151652</v>
+        <v>817.14021459567323</v>
       </c>
       <c r="E6" s="55">
         <f>LCC_standard!F33/(1+'Input params'!$D$2)^('Results - Standard'!E2-2014)</f>
-        <v>1000.2202339326049</v>
+        <v>1395.7034920432689</v>
       </c>
       <c r="F6" s="55">
         <f>LCC_standard!G33/(1+'Input params'!$D$2)^('Results - Standard'!F2-2014)</f>
-        <v>1488.5640338425628</v>
+        <v>2077.1365642099859</v>
       </c>
       <c r="G6" s="55">
         <f>LCC_standard!H33/(1+'Input params'!$D$2)^('Results - Standard'!G2-2014)</f>
-        <v>2033.2073403478621</v>
+        <v>2837.1297527287643</v>
       </c>
       <c r="H6" s="55">
         <f>LCC_standard!I33/(1+'Input params'!$D$2)^('Results - Standard'!H2-2014)</f>
-        <v>2618.6262113455468</v>
+        <v>3654.0210081145765</v>
       </c>
       <c r="I6" s="55">
         <f>LCC_standard!J33/(1+'Input params'!$D$2)^('Results - Standard'!I2-2014)</f>
-        <v>3231.0771379636462</v>
+        <v>4508.632690608908</v>
       </c>
       <c r="J6" s="55">
         <f>LCC_standard!K33/(1+'Input params'!$D$2)^('Results - Standard'!J2-2014)</f>
-        <v>3858.4864995210037</v>
+        <v>5384.1173160531525</v>
       </c>
       <c r="K6" s="55">
         <f>LCC_standard!L33/(1+'Input params'!$D$2)^('Results - Standard'!K2-2014)</f>
-        <v>4490.3416407789182</v>
+        <v>6265.8055655018097</v>
       </c>
       <c r="L6" s="55">
         <f>LCC_standard!M33/(1+'Input params'!$D$2)^('Results - Standard'!L2-2014)</f>
-        <v>5117.581678507463</v>
+        <v>7141.0539171224073</v>
       </c>
       <c r="M6" s="55">
         <f>LCC_standard!N33/(1+'Input params'!$D$2)^('Results - Standard'!M2-2014)</f>
-        <v>5732.4880589171007</v>
+        <v>7999.0919304538256</v>
       </c>
       <c r="N6" s="55">
         <f>LCC_standard!O33/(1+'Input params'!$D$2)^('Results - Standard'!N2-2014)</f>
-        <v>6328.5756808259594</v>
+        <v>8830.8703200899818</v>
       </c>
       <c r="O6" s="55">
         <f>LCC_standard!P33/(1+'Input params'!$D$2)^('Results - Standard'!O2-2014)</f>
-        <v>6900.4856334699061</v>
+        <v>9628.9112824299227</v>
       </c>
       <c r="P6" s="55">
         <f>LCC_standard!Q33/(1+'Input params'!$D$2)^('Results - Standard'!P2-2014)</f>
-        <v>7443.880580010431</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10387.162514224518</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="54" t="s">
         <v>196</v>
       </c>
@@ -20415,78 +20414,78 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="52" t="s">
         <v>126</v>
       </c>
       <c r="B8" s="53">
         <f>SUM(B3:B7)</f>
-        <v>363570.56975898799</v>
+        <v>368653.05200394359</v>
       </c>
       <c r="C8" s="53">
         <f>SUM(C3:C7)</f>
-        <v>24784.120344484407</v>
+        <v>36933.778466216601</v>
       </c>
       <c r="D8" s="53">
         <f t="shared" ref="D8:P8" si="0">SUM(D3:D7)</f>
-        <v>40212.27490336325</v>
+        <v>60832.774794207588</v>
       </c>
       <c r="E8" s="53">
         <f t="shared" si="0"/>
-        <v>59443.279640953522</v>
+        <v>90222.209994800607</v>
       </c>
       <c r="F8" s="53">
         <f t="shared" si="0"/>
-        <v>81769.358353345975</v>
+        <v>124127.5190677347</v>
       </c>
       <c r="G8" s="53">
         <f t="shared" si="0"/>
-        <v>106481.5167342966</v>
+        <v>161524.82568785571</v>
       </c>
       <c r="H8" s="53">
         <f t="shared" si="0"/>
-        <v>132923.06349543648</v>
+        <v>201451.51470900909</v>
       </c>
       <c r="I8" s="53">
         <f t="shared" si="0"/>
-        <v>160501.91691716254</v>
+        <v>243033.7961222803</v>
       </c>
       <c r="J8" s="53">
         <f t="shared" si="0"/>
-        <v>188692.70187754999</v>
+        <v>285493.51657498931</v>
       </c>
       <c r="K8" s="53">
         <f t="shared" si="0"/>
-        <v>217035.22186367927</v>
+        <v>328147.61783842021</v>
       </c>
       <c r="L8" s="53">
         <f t="shared" si="0"/>
-        <v>245131.34922294764</v>
+        <v>370404.40962592635</v>
       </c>
       <c r="M8" s="53">
         <f t="shared" si="0"/>
-        <v>272641.14805807534</v>
+        <v>411758.29970217653</v>
       </c>
       <c r="N8" s="53">
         <f t="shared" si="0"/>
-        <v>299278.62288439233</v>
+        <v>451783.75557349715</v>
       </c>
       <c r="O8" s="53">
         <f t="shared" si="0"/>
-        <v>324807.31304620847</v>
+        <v>490128.91723400995</v>
       </c>
       <c r="P8" s="53">
         <f t="shared" si="0"/>
-        <v>349035.86986929888</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>526509.11332729366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="58" t="s">
         <v>103</v>
       </c>
       <c r="B9" s="60">
         <f>SUM(B8:M8)</f>
-        <v>1893186.5211702832</v>
+        <v>2682583.3145875605</v>
       </c>
       <c r="C9" s="55"/>
       <c r="D9" s="55"/>
@@ -20500,13 +20499,13 @@
       <c r="L9" s="55"/>
       <c r="M9" s="55"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="59" t="s">
         <v>102</v>
       </c>
       <c r="B10" s="61">
         <f>B9/(2025-2019+1)</f>
-        <v>270455.21731004043</v>
+        <v>383226.18779822293</v>
       </c>
       <c r="C10" s="55"/>
       <c r="D10" s="55"/>
@@ -20534,19 +20533,19 @@
       <selection activeCell="F19" sqref="F19:H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="17" width="12.140625" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="12.109375" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>193</v>
       </c>
@@ -20596,7 +20595,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>119</v>
       </c>
@@ -20652,7 +20651,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>218</v>
       </c>
@@ -20724,7 +20723,7 @@
         <v>743442.14282666461</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>124</v>
       </c>
@@ -20733,70 +20732,70 @@
       </c>
       <c r="C5" s="55">
         <f>LCC_standard!C23</f>
-        <v>1119.1613243558936</v>
+        <v>4945.0123400799048</v>
       </c>
       <c r="D5" s="55">
         <f>LCC_standard!D23</f>
-        <v>1886.4824073287991</v>
+        <v>8335.4191934334867</v>
       </c>
       <c r="E5" s="55">
         <f>LCC_standard!E23</f>
-        <v>2351.2449856327294</v>
+        <v>10388.971826913736</v>
       </c>
       <c r="F5" s="55">
         <f>LCC_standard!F23</f>
-        <v>2715.1327555606958</v>
+        <v>11996.809297292342</v>
       </c>
       <c r="G5" s="55">
         <f>LCC_standard!G23</f>
-        <v>3022.3802143510211</v>
+        <v>13354.381652690499</v>
       </c>
       <c r="H5" s="55">
         <f>LCC_standard!H23</f>
-        <v>3292.1739066013924</v>
+        <v>14546.464606612833</v>
       </c>
       <c r="I5" s="55">
         <f>LCC_standard!I23</f>
-        <v>3534.8991953837435</v>
+        <v>15618.945867497165</v>
       </c>
       <c r="J5" s="55">
         <f>LCC_standard!J23</f>
-        <v>3756.919749610182</v>
+        <v>16599.943295220986</v>
       </c>
       <c r="K5" s="55">
         <f>LCC_standard!K23</f>
-        <v>3962.4635798548366</v>
+        <v>17508.138347057753</v>
       </c>
       <c r="L5" s="55">
         <f>LCC_standard!L23</f>
-        <v>4154.505750960986</v>
+        <v>18356.67634177643</v>
       </c>
       <c r="M5" s="55">
         <f>LCC_standard!M23</f>
-        <v>4335.2316792304482</v>
+        <v>19155.213537456621</v>
       </c>
       <c r="N5" s="55">
         <f>LCC_standard!N23</f>
-        <v>4506.3013961617698</v>
+        <v>19911.084780350244</v>
       </c>
       <c r="O5" s="55">
         <f>LCC_standard!O23</f>
-        <v>4669.0101699258903</v>
+        <v>20630.013210588761</v>
       </c>
       <c r="P5" s="55">
         <f>LCC_standard!P23</f>
-        <v>4824.3911633064927</v>
+        <v>21316.563856111796</v>
       </c>
       <c r="Q5" s="55">
         <f>LCC_standard!Q23</f>
-        <v>4973.2837794062825</v>
+        <v>21974.445618049904</v>
       </c>
       <c r="R5" s="73">
         <f>SUM(Tabell1[[#This Row],[2014]:[2024]])</f>
-        <v>34130.595548870726</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>150805.97630603175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>124</v>
       </c>
@@ -20805,70 +20804,70 @@
       </c>
       <c r="C6" s="55">
         <f>LCC_standard!C29</f>
-        <v>1471.4897776547728</v>
+        <v>2706.0601733281237</v>
       </c>
       <c r="D6" s="55">
         <f>LCC_standard!D29</f>
-        <v>7244.5096604245427</v>
+        <v>13322.606357898214</v>
       </c>
       <c r="E6" s="55">
         <f>LCC_standard!E29</f>
-        <v>16704.501989384764</v>
+        <v>30719.470998159886</v>
       </c>
       <c r="F6" s="55">
         <f>LCC_standard!F29</f>
-        <v>29673.136380642834</v>
+        <v>54568.70567280965</v>
       </c>
       <c r="G6" s="55">
         <f>LCC_standard!G29</f>
-        <v>45927.063433238516</v>
+        <v>84459.572279651213</v>
       </c>
       <c r="H6" s="55">
         <f>LCC_standard!H29</f>
-        <v>65240.332283264754</v>
+        <v>119976.5486429733</v>
       </c>
       <c r="I6" s="55">
         <f>LCC_standard!I29</f>
-        <v>87385.896359003862</v>
+        <v>160702.09758749558</v>
       </c>
       <c r="J6" s="55">
         <f>LCC_standard!J29</f>
-        <v>112136.8882317091</v>
+        <v>206219.01138070127</v>
       </c>
       <c r="K6" s="55">
         <f>LCC_standard!K29</f>
-        <v>139268.05114827998</v>
+        <v>256113.04431215813</v>
       </c>
       <c r="L6" s="55">
         <f>LCC_standard!L29</f>
-        <v>168557.17249601317</v>
+        <v>309975.54882591369</v>
       </c>
       <c r="M6" s="55">
         <f>LCC_standard!M29</f>
-        <v>199786.42460284301</v>
+        <v>367405.94124345592</v>
       </c>
       <c r="N6" s="55">
         <f>LCC_standard!N29</f>
-        <v>232743.56911714189</v>
+        <v>428013.91661036818</v>
       </c>
       <c r="O6" s="55">
         <f>LCC_standard!O29</f>
-        <v>267223.00810655183</v>
+        <v>491421.38166027429</v>
       </c>
       <c r="P6" s="55">
         <f>LCC_standard!P29</f>
-        <v>303026.67870702618</v>
+        <v>557264.10006863379</v>
       </c>
       <c r="Q6" s="55">
         <f>LCC_standard!Q29</f>
-        <v>339964.7952062671</v>
+        <v>625193.05713937816</v>
       </c>
       <c r="R6" s="73">
         <f>SUM(Tabell1[[#This Row],[2014]:[2024]])</f>
-        <v>873395.46636245935</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1606168.607474545</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>124</v>
       </c>
@@ -20877,70 +20876,70 @@
       </c>
       <c r="C7" s="74">
         <f>LCC_standard!C33</f>
-        <v>55.794250830733674</v>
+        <v>77.855084388984764</v>
       </c>
       <c r="D7" s="74">
         <f>LCC_standard!D33</f>
-        <v>274.68895487918928</v>
+        <v>383.29991790231367</v>
       </c>
       <c r="E7" s="74">
         <f>LCC_standard!E33</f>
-        <v>633.38202422557629</v>
+        <v>883.8188561066803</v>
       </c>
       <c r="F7" s="74">
         <f>LCC_standard!F33</f>
-        <v>1125.1117332223657</v>
+        <v>1569.9766128737597</v>
       </c>
       <c r="G7" s="74">
         <f>LCC_standard!G33</f>
-        <v>1741.409377098852</v>
+        <v>2429.9559899300421</v>
       </c>
       <c r="H7" s="74">
         <f>LCC_standard!H33</f>
-        <v>2473.7076118152117</v>
+        <v>3451.8021481428464</v>
       </c>
       <c r="I7" s="74">
         <f>LCC_standard!I33</f>
-        <v>3313.3975475476473</v>
+        <v>4623.5022755513019</v>
       </c>
       <c r="J7" s="74">
         <f>LCC_standard!J33</f>
-        <v>4251.8770870087474</v>
+        <v>5933.053038473854</v>
       </c>
       <c r="K7" s="74">
         <f>LCC_standard!K33</f>
-        <v>5280.6052046510304</v>
+        <v>7368.5363225014562</v>
       </c>
       <c r="L7" s="74">
         <f>LCC_standard!L33</f>
-        <v>6391.1562991287083</v>
+        <v>8918.1950757150098</v>
       </c>
       <c r="M7" s="74">
         <f>LCC_standard!M33</f>
-        <v>7575.2710322135008</v>
+        <v>10570.504249114201</v>
       </c>
       <c r="N7" s="74">
         <f>LCC_standard!N33</f>
-        <v>8824.9019950776801</v>
+        <v>12314.234519174352</v>
       </c>
       <c r="O7" s="74">
         <f>LCC_standard!O33</f>
-        <v>10132.253562646263</v>
+        <v>14138.507900457158</v>
       </c>
       <c r="P7" s="74">
         <f>LCC_standard!P33</f>
-        <v>11489.815815866688</v>
+        <v>16032.845080616167</v>
       </c>
       <c r="Q7" s="74">
         <f>LCC_standard!Q33</f>
-        <v>12890.392679171968</v>
+        <v>17987.204683305328</v>
       </c>
       <c r="R7" s="75">
         <f>SUM(Tabell1[[#This Row],[2014]:[2024]])</f>
-        <v>33116.401122621566</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>46210.499570700449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>219</v>
       </c>
@@ -21012,7 +21011,7 @@
         <v>737044.17914545874</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>143</v>
       </c>
@@ -21025,7 +21024,7 @@
       </c>
       <c r="D9" s="55">
         <f>LCC_current_2018_standard_cross!D23</f>
-        <v>19231.813333333332</v>
+        <v>84975.733333333323</v>
       </c>
       <c r="E9" s="55">
         <f>LCC_current_2018_standard_cross!E23</f>
@@ -21033,7 +21032,7 @@
       </c>
       <c r="F9" s="55">
         <f>LCC_current_2018_standard_cross!F23</f>
-        <v>19231.813333333332</v>
+        <v>84975.733333333323</v>
       </c>
       <c r="G9" s="55">
         <f>LCC_current_2018_standard_cross!G23</f>
@@ -21041,50 +21040,50 @@
       </c>
       <c r="H9" s="55">
         <f>LCC_current_2018_standard_cross!H23</f>
-        <v>3292.1739066013924</v>
+        <v>14546.464606612833</v>
       </c>
       <c r="I9" s="55">
         <f>LCC_current_2018_standard_cross!I23</f>
-        <v>3534.8991953837435</v>
+        <v>15618.945867497165</v>
       </c>
       <c r="J9" s="55">
         <f>LCC_current_2018_standard_cross!J23</f>
-        <v>3756.919749610182</v>
+        <v>16599.943295220986</v>
       </c>
       <c r="K9" s="55">
         <f>LCC_current_2018_standard_cross!K23</f>
-        <v>3962.4635798548366</v>
+        <v>17508.138347057753</v>
       </c>
       <c r="L9" s="55">
         <f>LCC_current_2018_standard_cross!L23</f>
-        <v>4154.505750960986</v>
+        <v>18356.67634177643</v>
       </c>
       <c r="M9" s="55">
         <f>LCC_current_2018_standard_cross!M23</f>
-        <v>4335.2316792304482</v>
+        <v>19155.213537456621</v>
       </c>
       <c r="N9" s="55">
         <f>LCC_current_2018_standard_cross!N23</f>
-        <v>4506.3013961617698</v>
+        <v>19911.084780350244</v>
       </c>
       <c r="O9" s="55">
         <f>LCC_current_2018_standard_cross!O23</f>
-        <v>4669.0101699258903</v>
+        <v>20630.013210588761</v>
       </c>
       <c r="P9" s="55">
         <f>LCC_current_2018_standard_cross!P23</f>
-        <v>4824.3911633064927</v>
+        <v>21316.563856111796</v>
       </c>
       <c r="Q9" s="55">
         <f>LCC_current_2018_standard_cross!Q23</f>
-        <v>4973.2837794062825</v>
+        <v>21974.445618049904</v>
       </c>
       <c r="R9" s="73">
         <f>SUM(Tabell1[[#This Row],[2014]:[2024]])</f>
-        <v>61499.82052830825</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>271736.84866228845</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>143</v>
       </c>
@@ -21113,50 +21112,50 @@
       </c>
       <c r="H10" s="55">
         <f>LCC_current_2018_standard_cross!H29</f>
-        <v>60390.538487814534</v>
+        <v>111057.80925516854</v>
       </c>
       <c r="I10" s="55">
         <f>LCC_current_2018_standard_cross!I29</f>
-        <v>87385.896359003862</v>
+        <v>160702.09758749558</v>
       </c>
       <c r="J10" s="55">
         <f>LCC_current_2018_standard_cross!J29</f>
-        <v>112136.8882317091</v>
+        <v>206219.01138070127</v>
       </c>
       <c r="K10" s="55">
         <f>LCC_current_2018_standard_cross!K29</f>
-        <v>139268.05114827998</v>
+        <v>256113.04431215813</v>
       </c>
       <c r="L10" s="55">
         <f>LCC_current_2018_standard_cross!L29</f>
-        <v>168557.17249601317</v>
+        <v>309975.54882591369</v>
       </c>
       <c r="M10" s="55">
         <f>LCC_current_2018_standard_cross!M29</f>
-        <v>199786.42460284301</v>
+        <v>367405.94124345592</v>
       </c>
       <c r="N10" s="55">
         <f>LCC_current_2018_standard_cross!N29</f>
-        <v>232743.56911714189</v>
+        <v>428013.91661036818</v>
       </c>
       <c r="O10" s="55">
         <f>LCC_current_2018_standard_cross!O29</f>
-        <v>267223.00810655183</v>
+        <v>491421.38166027429</v>
       </c>
       <c r="P10" s="55">
         <f>LCC_current_2018_standard_cross!P29</f>
-        <v>303026.67870702618</v>
+        <v>557264.10006863379</v>
       </c>
       <c r="Q10" s="55">
         <f>LCC_current_2018_standard_cross!Q29</f>
-        <v>339964.7952062671</v>
+        <v>625193.05713937816</v>
       </c>
       <c r="R10" s="73">
         <f>SUM(Tabell1[[#This Row],[2014]:[2024]])</f>
-        <v>767524.97132566373</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1411473.4526048931</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>143</v>
       </c>
@@ -21185,50 +21184,50 @@
       </c>
       <c r="H11" s="74">
         <f>LCC_current_2018_standard_cross!H33</f>
-        <v>2289.8187288547429</v>
+        <v>3195.2043035993856</v>
       </c>
       <c r="I11" s="74">
         <f>LCC_current_2018_standard_cross!I33</f>
-        <v>3313.3975475476473</v>
+        <v>4623.5022755513019</v>
       </c>
       <c r="J11" s="74">
         <f>LCC_current_2018_standard_cross!J33</f>
-        <v>4251.8770870087474</v>
+        <v>5933.053038473854</v>
       </c>
       <c r="K11" s="74">
         <f>LCC_current_2018_standard_cross!K33</f>
-        <v>5280.6052046510304</v>
+        <v>7368.5363225014562</v>
       </c>
       <c r="L11" s="74">
         <f>LCC_current_2018_standard_cross!L33</f>
-        <v>6391.1562991287083</v>
+        <v>8918.1950757150098</v>
       </c>
       <c r="M11" s="74">
         <f>LCC_current_2018_standard_cross!M33</f>
-        <v>7575.2710322135008</v>
+        <v>10570.504249114201</v>
       </c>
       <c r="N11" s="74">
         <f>LCC_current_2018_standard_cross!N33</f>
-        <v>8824.9019950776801</v>
+        <v>12314.234519174352</v>
       </c>
       <c r="O11" s="74">
         <f>LCC_current_2018_standard_cross!O33</f>
-        <v>10132.253562646263</v>
+        <v>14138.507900457158</v>
       </c>
       <c r="P11" s="74">
         <f>LCC_current_2018_standard_cross!P33</f>
-        <v>11489.815815866688</v>
+        <v>16032.845080616167</v>
       </c>
       <c r="Q11" s="74">
         <f>LCC_current_2018_standard_cross!Q33</f>
-        <v>12890.392679171968</v>
+        <v>17987.204683305328</v>
       </c>
       <c r="R11" s="75">
         <f>SUM(Tabell1[[#This Row],[2014]:[2024]])</f>
-        <v>29102.125899404382</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>40608.995264955207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>218</v>
       </c>
@@ -21237,70 +21236,70 @@
       </c>
       <c r="C12" s="55">
         <f>SUM(C4:C7)</f>
-        <v>13338.569758988</v>
+        <v>18421.052003943612</v>
       </c>
       <c r="D12" s="55">
         <f>SUM(D4:D7)</f>
-        <v>25775.485158263786</v>
+        <v>38411.129604865273</v>
       </c>
       <c r="E12" s="55">
         <f>SUM(E4:E7)</f>
-        <v>43493.596535477693</v>
+        <v>65796.729217414933</v>
       </c>
       <c r="F12" s="55">
         <f t="shared" ref="F12:Q12" si="0">SUM(F4:F7)</f>
-        <v>66865.605310041559</v>
+        <v>101487.71602359141</v>
       </c>
       <c r="G12" s="55">
         <f t="shared" si="0"/>
-        <v>95658.583815369318</v>
+        <v>145211.64071295268</v>
       </c>
       <c r="H12" s="55">
         <f t="shared" si="0"/>
-        <v>129551.04638673618</v>
+        <v>196519.64798278382</v>
       </c>
       <c r="I12" s="55">
         <f t="shared" si="0"/>
-        <v>168190.0802375272</v>
+        <v>254900.43286613599</v>
       </c>
       <c r="J12" s="55">
         <f t="shared" si="0"/>
-        <v>211209.57309956473</v>
+        <v>319815.89574563282</v>
       </c>
       <c r="K12" s="55">
         <f t="shared" si="0"/>
-        <v>258238.99182696402</v>
+        <v>390717.59087589552</v>
       </c>
       <c r="L12" s="55">
         <f t="shared" si="0"/>
-        <v>308908.79499009252</v>
+        <v>467056.38068739476</v>
       </c>
       <c r="M12" s="55">
         <f t="shared" si="0"/>
-        <v>362854.27874159114</v>
+        <v>548289.01045733097</v>
       </c>
       <c r="N12" s="55">
         <f t="shared" si="0"/>
-        <v>419718.52129640389</v>
+        <v>633882.98469791526</v>
       </c>
       <c r="O12" s="55">
         <f t="shared" si="0"/>
-        <v>479154.71756647917</v>
+        <v>723320.34849867539</v>
       </c>
       <c r="P12" s="55">
         <f t="shared" si="0"/>
-        <v>540828.05193391384</v>
+        <v>816100.67525307625</v>
       </c>
       <c r="Q12" s="55">
         <f t="shared" si="0"/>
-        <v>604417.19522122236</v>
+        <v>911743.43099711032</v>
       </c>
       <c r="R12" s="83">
         <f>SUM(Tabell1[[#This Row],[2014]:[2024]])</f>
-        <v>1684084.6058606163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2546627.2261779415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>219</v>
       </c>
@@ -21313,7 +21312,7 @@
       </c>
       <c r="D13" s="55">
         <f>SUM(D8:D11)</f>
-        <v>71650.313333333324</v>
+        <v>137394.23333333334</v>
       </c>
       <c r="E13" s="55">
         <f t="shared" ref="E13:Q13" si="1">SUM(E8:E11)</f>
@@ -21321,7 +21320,7 @@
       </c>
       <c r="F13" s="55">
         <f t="shared" si="1"/>
-        <v>71650.313333333324</v>
+        <v>137394.23333333334</v>
       </c>
       <c r="G13" s="55">
         <f t="shared" si="1"/>
@@ -21329,50 +21328,50 @@
       </c>
       <c r="H13" s="55">
         <f t="shared" si="1"/>
-        <v>121267.75133642867</v>
+        <v>184094.69837853877</v>
       </c>
       <c r="I13" s="55">
         <f>SUM(I8:I11)</f>
-        <v>168190.0802375272</v>
+        <v>254900.43286613599</v>
       </c>
       <c r="J13" s="55">
         <f t="shared" si="1"/>
-        <v>211209.57309956473</v>
+        <v>319815.89574563282</v>
       </c>
       <c r="K13" s="55">
         <f t="shared" si="1"/>
-        <v>258238.99182696402</v>
+        <v>390717.59087589552</v>
       </c>
       <c r="L13" s="55">
         <f t="shared" si="1"/>
-        <v>308908.79499009252</v>
+        <v>467056.38068739476</v>
       </c>
       <c r="M13" s="55">
         <f t="shared" si="1"/>
-        <v>362854.27874159114</v>
+        <v>548289.01045733097</v>
       </c>
       <c r="N13" s="55">
         <f t="shared" si="1"/>
-        <v>419718.52129640389</v>
+        <v>633882.98469791526</v>
       </c>
       <c r="O13" s="55">
         <f t="shared" si="1"/>
-        <v>479154.71756647917</v>
+        <v>723320.34849867539</v>
       </c>
       <c r="P13" s="55">
         <f t="shared" si="1"/>
-        <v>540828.05193391384</v>
+        <v>816100.67525307625</v>
       </c>
       <c r="Q13" s="55">
         <f t="shared" si="1"/>
-        <v>604417.19522122236</v>
+        <v>911743.43099711032</v>
       </c>
       <c r="R13" s="83">
         <f>SUM(Tabell1[[#This Row],[2014]:[2024]])</f>
-        <v>1595171.0968988349</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2460863.4756775955</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>198</v>
       </c>
@@ -21381,70 +21380,70 @@
       </c>
       <c r="C14" s="53">
         <f>C12/(1+'Input params'!$D$2)^(2014-Tabell1[[#Headers],[2014]])</f>
-        <v>13338.569758988</v>
+        <v>18421.052003943612</v>
       </c>
       <c r="D14" s="53">
         <f>D12/(1+'Input params'!$D$2)^(2014-Tabell1[[#Headers],[2015]])</f>
-        <v>26806.504564594339</v>
+        <v>39947.574789059887</v>
       </c>
       <c r="E14" s="53">
         <f>E12/(1+'Input params'!$D$2)^(2014-Tabell1[[#Headers],[2016]])</f>
-        <v>47042.674012772681</v>
+        <v>71165.742321555997</v>
       </c>
       <c r="F14" s="53">
         <f>F12/(1+'Input params'!$D$2)^(2014-Tabell1[[#Headers],[2017]])</f>
-        <v>75214.712251474586</v>
+        <v>114159.87819716113</v>
       </c>
       <c r="G14" s="53">
         <f>G12/(1+'Input params'!$D$2)^(2014-Tabell1[[#Headers],[2018]])</f>
-        <v>111907.01311388727</v>
+        <v>169877.08089969223</v>
       </c>
       <c r="H14" s="53">
         <f>H12/(1+'Input params'!$D$2)^(2014-Tabell1[[#Headers],[2019]])</f>
-        <v>157618.65659537967</v>
+        <v>239096.20009688032</v>
       </c>
       <c r="I14" s="53">
         <f>I12/(1+'Input params'!$D$2)^(2014-Tabell1[[#Headers],[2020]])</f>
-        <v>212814.10724691147</v>
+        <v>322530.36552838481</v>
       </c>
       <c r="J14" s="53">
         <f>J12/(1+'Input params'!$D$2)^(2014-Tabell1[[#Headers],[2021]])</f>
-        <v>277937.38932055247</v>
+        <v>420855.90071645455</v>
       </c>
       <c r="K14" s="53">
         <f>K12/(1+'Input params'!$D$2)^(2014-Tabell1[[#Headers],[2022]])</f>
-        <v>353417.89182224346</v>
+        <v>534724.00232166075</v>
       </c>
       <c r="L14" s="53">
         <f>L12/(1+'Input params'!$D$2)^(2014-Tabell1[[#Headers],[2023]])</f>
-        <v>439673.53687028564</v>
+        <v>664766.86369919509</v>
       </c>
       <c r="M14" s="53">
         <f>M12/(1+'Input params'!$D$2)^(2014-Tabell1[[#Headers],[2024]])</f>
-        <v>537112.97236540832</v>
+        <v>811601.67421299871</v>
       </c>
       <c r="N14" s="53">
         <f>N12/(1+'Input params'!$D$2)^(2014-Tabell1[[#Headers],[2025]])</f>
-        <v>646137.38012031547</v>
+        <v>975833.73202231433</v>
       </c>
       <c r="O14" s="53">
         <f>O12/(1+'Input params'!$D$2)^(2014-Tabell1[[#Headers],[2026]])</f>
-        <v>767142.14050263108</v>
+        <v>1158059.1822919829</v>
       </c>
       <c r="P14" s="53">
         <f>P12/(1+'Input params'!$D$2)^(2014-Tabell1[[#Headers],[2027]])</f>
-        <v>900518.46128544712</v>
+        <v>1358867.6136620166</v>
       </c>
       <c r="Q14" s="53">
         <f>Q12/(1+'Input params'!$D$2)^(2014-Tabell1[[#Headers],[2028]])</f>
-        <v>1046655.0214907371</v>
+        <v>1578844.6257142688</v>
       </c>
       <c r="R14" s="82">
         <f>SUM(Tabell1[[#This Row],[2014]:[2024]])</f>
-        <v>2252884.0279224981</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <v>3407146.3347869869</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>199</v>
       </c>
@@ -21457,7 +21456,7 @@
       </c>
       <c r="D15" s="55">
         <f>D13/(1+'Input params'!$D$2)^(2014-Tabell1[[#Headers],[2015]])</f>
-        <v>74516.325866666666</v>
+        <v>142890.0026666667</v>
       </c>
       <c r="E15" s="55">
         <f>E13/(1+'Input params'!$D$2)^(2014-Tabell1[[#Headers],[2016]])</f>
@@ -21465,7 +21464,7 @@
       </c>
       <c r="F15" s="55">
         <f>F13/(1+'Input params'!$D$2)^(2014-Tabell1[[#Headers],[2017]])</f>
-        <v>80596.858057386664</v>
+        <v>154549.82688426669</v>
       </c>
       <c r="G15" s="55">
         <f>G13/(1+'Input params'!$D$2)^(2014-Tabell1[[#Headers],[2018]])</f>
@@ -21473,50 +21472,50 @@
       </c>
       <c r="H15" s="55">
         <f>H13/(1+'Input params'!$D$2)^(2014-Tabell1[[#Headers],[2019]])</f>
-        <v>147540.76163098746</v>
+        <v>223979.34909870184</v>
       </c>
       <c r="I15" s="55">
         <f>I13/(1+'Input params'!$D$2)^(2014-Tabell1[[#Headers],[2020]])</f>
-        <v>212814.10724691147</v>
+        <v>322530.36552838481</v>
       </c>
       <c r="J15" s="55">
         <f>J13/(1+'Input params'!$D$2)^(2014-Tabell1[[#Headers],[2021]])</f>
-        <v>277937.38932055247</v>
+        <v>420855.90071645455</v>
       </c>
       <c r="K15" s="55">
         <f>K13/(1+'Input params'!$D$2)^(2014-Tabell1[[#Headers],[2022]])</f>
-        <v>353417.89182224346</v>
+        <v>534724.00232166075</v>
       </c>
       <c r="L15" s="55">
         <f>L13/(1+'Input params'!$D$2)^(2014-Tabell1[[#Headers],[2023]])</f>
-        <v>439673.53687028564</v>
+        <v>664766.86369919509</v>
       </c>
       <c r="M15" s="55">
         <f>M13/(1+'Input params'!$D$2)^(2014-Tabell1[[#Headers],[2024]])</f>
-        <v>537112.97236540832</v>
+        <v>811601.67421299871</v>
       </c>
       <c r="N15" s="55">
         <f>N13/(1+'Input params'!$D$2)^(2014-Tabell1[[#Headers],[2025]])</f>
-        <v>646137.38012031547</v>
+        <v>975833.73202231433</v>
       </c>
       <c r="O15" s="55">
         <f>O13/(1+'Input params'!$D$2)^(2014-Tabell1[[#Headers],[2026]])</f>
-        <v>767142.14050263108</v>
+        <v>1158059.1822919829</v>
       </c>
       <c r="P15" s="55">
         <f>P13/(1+'Input params'!$D$2)^(2014-Tabell1[[#Headers],[2027]])</f>
-        <v>900518.46128544712</v>
+        <v>1358867.6136620166</v>
       </c>
       <c r="Q15" s="55">
         <f>Q13/(1+'Input params'!$D$2)^(2014-Tabell1[[#Headers],[2028]])</f>
-        <v>1046655.0214907371</v>
+        <v>1578844.6257142688</v>
       </c>
       <c r="R15" s="83">
         <f>SUM(Tabell1[[#This Row],[2014]:[2024]])</f>
-        <v>2146587.9008239624</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+        <v>3298876.0427718493</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C16" s="55"/>
       <c r="D16" s="55"/>
       <c r="E16" s="55"/>
@@ -21533,7 +21532,7 @@
       <c r="P16" s="55"/>
       <c r="Q16" s="55"/>
     </row>
-    <row r="17" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="55"/>
       <c r="C17" t="s">
         <v>129</v>
@@ -21554,7 +21553,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="77" t="s">
         <v>135</v>
       </c>
@@ -21563,34 +21562,34 @@
       </c>
       <c r="C18" s="70">
         <f>L29</f>
-        <v>160947.49284585539</v>
+        <v>248727.43685588505</v>
       </c>
       <c r="D18" s="49">
         <f>SUM(C8:L8)/(SUM(C13:L13)+'Input params'!$D$22)</f>
-        <v>0.37744631873959711</v>
+        <v>0.26243572469009452</v>
       </c>
       <c r="E18" s="49">
         <f>SUM(C9:L9)/(SUM(C13:L13)+'Input params'!$D$22)</f>
-        <v>3.682718675786071E-2</v>
+        <v>0.11313864951625416</v>
       </c>
       <c r="F18" s="49">
         <f>SUM(C10:L10)/(SUM(C13:L13)+'Input params'!$D$22)</f>
-        <v>0.36575463780555195</v>
+        <v>0.46766815877508078</v>
       </c>
       <c r="G18" s="49">
         <f>SUM(C11:L11)/(SUM(C13:L13)+'Input params'!$D$22)</f>
-        <v>1.3868262161325605E-2</v>
+        <v>1.3455112464367248E-2</v>
       </c>
       <c r="H18" s="49">
         <f>C31/(SUM(C13:L13)+'Input params'!$D$22)</f>
-        <v>0.20610359453566474</v>
+        <v>0.14330235455420332</v>
       </c>
       <c r="I18" s="76">
         <f>SUM(D18:H18)</f>
-        <v>1.0000000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="71" t="s">
         <v>134</v>
       </c>
@@ -21599,27 +21598,27 @@
       </c>
       <c r="C19" s="70">
         <f>L30</f>
-        <v>171577.10555570896</v>
+        <v>259554.46605739882</v>
       </c>
       <c r="D19" s="49">
         <f>SUM(C4:L4)/(SUM(C12:L12)+'Input params'!$D$22)</f>
-        <v>0.36089568385104859</v>
+        <v>0.25548676002070542</v>
       </c>
       <c r="E19" s="49">
         <f>SUM(C5:L5)/(SUM(C12:L12)+'Input params'!$D$22)</f>
-        <v>1.8155148292629732E-2</v>
+        <v>5.6788604607810454E-2</v>
       </c>
       <c r="F19" s="49">
         <f>SUM(C6:L6)/(SUM(C12:L12)+'Input params'!$D$22)</f>
-        <v>0.41044882344474937</v>
+        <v>0.53435013801762998</v>
       </c>
       <c r="G19" s="49">
         <f>SUM(C7:L7)/(SUM(C12:L12)+'Input params'!$D$22)</f>
-        <v>1.5562924701355698E-2</v>
+        <v>1.5373595716263401E-2</v>
       </c>
       <c r="H19" s="49">
         <f>C31/(SUM(C12:L12)+'Input params'!$D$22)</f>
-        <v>0.19493741971021655</v>
+        <v>0.13800090163759079</v>
       </c>
       <c r="I19" s="76">
         <f>SUM(D19:H19)</f>
@@ -21634,67 +21633,67 @@
       <c r="P19" s="55"/>
       <c r="Q19" s="55"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D20" s="55"/>
       <c r="E20" s="55"/>
       <c r="F20" s="55"/>
       <c r="G20" s="55"/>
       <c r="H20" s="55"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D21" s="55">
         <f>D18*$C$18</f>
-        <v>60749.038685035761</v>
+        <v>65274.965141583918</v>
       </c>
       <c r="E21" s="55">
         <f>E18*$C$18</f>
-        <v>5927.2433772437671</v>
+        <v>28140.686303514216</v>
       </c>
       <c r="F21" s="55">
         <f>F18*$C$18</f>
-        <v>58867.291951547501</v>
+        <v>116321.90243123693</v>
       </c>
       <c r="G21" s="55">
         <f>G18*$C$18</f>
-        <v>2232.0620249944</v>
+        <v>3346.6556358697367</v>
       </c>
       <c r="H21" s="55">
         <f>H18*$C$18</f>
-        <v>33171.856807033982</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+        <v>35643.227343680257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D22" s="55">
         <f>D19*$C$19</f>
-        <v>61921.436842711133</v>
+        <v>66312.729581908978</v>
       </c>
       <c r="E22" s="55">
         <f>E19*$C$19</f>
-        <v>3115.0077949840806</v>
+        <v>14739.73594712498</v>
       </c>
       <c r="F22" s="55">
         <f>F19*$C$19</f>
-        <v>70423.621105396305</v>
+        <v>138692.96476086331</v>
       </c>
       <c r="G22" s="55">
         <f>G19*$C$19</f>
-        <v>2670.2415742400567</v>
+        <v>3990.2854275170607</v>
       </c>
       <c r="H22" s="55">
         <f>H19*$C$19</f>
-        <v>33446.798238377363</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+        <v>35818.750339984494</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S23" s="55"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S24" s="55"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S25" s="55"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>193</v>
       </c>
@@ -21757,7 +21756,7 @@
       </c>
       <c r="S26" s="55"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>16</v>
       </c>
@@ -21807,7 +21806,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>27</v>
       </c>
@@ -21857,7 +21856,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>216</v>
       </c>
@@ -21867,127 +21866,127 @@
       </c>
       <c r="D29" s="55">
         <f>SUM($C$15:D15)/D26</f>
-        <v>40791.662933333333</v>
+        <v>74978.501333333348</v>
       </c>
       <c r="E29" s="55">
         <f>SUM($C$15:E15)/E26</f>
-        <v>29742.331022222221</v>
+        <v>52533.556622222233</v>
       </c>
       <c r="F29" s="55">
         <f>SUM($C$15:F15)/F26</f>
-        <v>42455.962781013332</v>
+        <v>78037.624187733338</v>
       </c>
       <c r="G29" s="55">
         <f>SUM($C$15:G15)/G26</f>
-        <v>35618.248313514669</v>
+        <v>64083.577438890665</v>
       </c>
       <c r="H29" s="55">
         <f>SUM($C$15:H15)/H26</f>
-        <v>54272.000533093465</v>
+        <v>90732.872715525868</v>
       </c>
       <c r="I29" s="55">
         <f>SUM($C$15:I15)/I26</f>
-        <v>76920.872920781752</v>
+        <v>123846.80026022</v>
       </c>
       <c r="J29" s="106">
         <f>SUM($C$15:J15)/J26</f>
-        <v>102047.9374707531</v>
+        <v>160972.93781724933</v>
       </c>
       <c r="K29" s="55">
         <f>SUM($C$15:K15)/K26</f>
-        <v>129977.93239869649</v>
+        <v>202500.83387329505</v>
       </c>
       <c r="L29" s="55">
         <f>SUM($C$15:L15)/L26</f>
-        <v>160947.49284585539</v>
+        <v>248727.43685588505</v>
       </c>
       <c r="M29" s="134">
         <f>SUM($C$15:M15)/M26</f>
-        <v>195144.35462036022</v>
+        <v>299897.8220701681</v>
       </c>
       <c r="N29" s="55">
         <f>SUM($C$15:N15)/N26</f>
-        <v>232727.10674535649</v>
+        <v>356225.81456618028</v>
       </c>
       <c r="O29" s="55">
         <f>SUM($C$15:O15)/O26</f>
-        <v>273835.95549591607</v>
+        <v>417905.30439124198</v>
       </c>
       <c r="P29" s="55">
         <f>SUM($C$15:P15)/P26</f>
-        <v>318598.99162373971</v>
+        <v>485116.89791058301</v>
       </c>
       <c r="Q29" s="55">
         <f>SUM($C$15:Q15)/Q26</f>
-        <v>367136.06028153951</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+        <v>558032.07976416207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>217</v>
       </c>
       <c r="C30" s="55">
         <f>SUM($C$14:C14)/C26</f>
-        <v>13338.569758988</v>
+        <v>18421.052003943612</v>
       </c>
       <c r="D30" s="55">
         <f>SUM($C$14:D14)/D26</f>
-        <v>20072.53716179117</v>
+        <v>29184.313396501748</v>
       </c>
       <c r="E30" s="55">
         <f>SUM($C$14:E14)/E26</f>
-        <v>29062.58277878501</v>
+        <v>43178.123038186495</v>
       </c>
       <c r="F30" s="55">
         <f>SUM($C$14:F14)/F26</f>
-        <v>40600.615146957403</v>
+        <v>60923.561827930156</v>
       </c>
       <c r="G30" s="55">
         <f>SUM($C$14:G14)/G26</f>
-        <v>54861.89474034337</v>
+        <v>82714.265642282582</v>
       </c>
       <c r="H30" s="55">
         <f>SUM($C$14:H14)/H26</f>
-        <v>71988.02171618276</v>
+        <v>108777.92138471553</v>
       </c>
       <c r="I30" s="55">
         <f>SUM($C$14:I14)/I26</f>
-        <v>92106.033934858293</v>
+        <v>139313.98483381115</v>
       </c>
       <c r="J30" s="55">
         <f>SUM($C$14:J14)/J26</f>
-        <v>115334.95335807007</v>
+        <v>174506.72431914156</v>
       </c>
       <c r="K30" s="55">
         <f>SUM($C$14:K14)/K26</f>
-        <v>141788.61318742266</v>
+        <v>214530.86631942148</v>
       </c>
       <c r="L30" s="134">
         <f>SUM($C$14:L14)/L26</f>
-        <v>171577.10555570896</v>
+        <v>259554.46605739882</v>
       </c>
       <c r="M30" s="55">
         <f>SUM($C$14:M14)/M26</f>
-        <v>204807.63890204529</v>
+        <v>309740.57588972611</v>
       </c>
       <c r="N30" s="106">
         <f>SUM($C$14:N14)/N26</f>
-        <v>241585.11733690114</v>
+        <v>365248.33890077512</v>
       </c>
       <c r="O30" s="106">
         <f>SUM($C$14:O14)/O26</f>
-        <v>282012.58065734192</v>
+        <v>426233.78839240648</v>
       </c>
       <c r="P30" s="55">
         <f>SUM($C$14:P14)/P26</f>
-        <v>326191.57213077799</v>
+        <v>492850.49019737862</v>
       </c>
       <c r="Q30" s="55">
         <f>SUM($C$14:Q14)/Q26</f>
-        <v>374222.46875477524</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+        <v>565250.0992318379</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>195</v>
       </c>
@@ -22071,14 +22070,14 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="79" t="s">
         <v>144</v>
       </c>
@@ -22116,7 +22115,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="86" t="s">
         <v>129</v>
       </c>
@@ -22154,7 +22153,7 @@
         <v>440948.48510419176</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="84" t="s">
         <v>29</v>
       </c>
@@ -22192,7 +22191,7 @@
         <v>0.17233494377123934</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="85" t="s">
         <v>132</v>
       </c>
@@ -22230,7 +22229,7 @@
         <v>5.0172304647392259E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="85" t="s">
         <v>133</v>
       </c>
@@ -22268,7 +22267,7 @@
         <v>0.55337400211886278</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="90" t="s">
         <v>30</v>
       </c>
@@ -22306,7 +22305,7 @@
         <v>0.13785448735917352</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="85"/>
       <c r="B7" s="112">
         <v>8.9180396859285763E-2</v>
@@ -22342,7 +22341,7 @@
         <v>8.626426210333199E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="84" t="s">
         <v>29</v>
       </c>
@@ -22391,7 +22390,7 @@
         <v>75990.832386444061</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="85" t="s">
         <v>132</v>
       </c>
@@ -22440,7 +22439,7 @@
         <v>22123.401728453617</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="85" t="s">
         <v>133</v>
       </c>
@@ -22489,7 +22488,7 @@
         <v>244009.42793035635</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="90" t="s">
         <v>30</v>
       </c>
@@ -22538,7 +22537,7 @@
         <v>60786.727365842518</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="85" t="s">
         <v>194</v>
       </c>
@@ -22587,7 +22586,7 @@
         <v>38038.09569309518</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="100"/>
       <c r="B13" s="76">
         <f t="shared" ref="B13:L13" si="5">SUBTOTAL(109,B3:B7)</f>
@@ -22634,13 +22633,13 @@
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="49">
         <f>(G2-B2)/G2</f>
         <v>1.7359413100946651E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>145</v>
       </c>
@@ -22649,62 +22648,62 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="86" t="s">
         <v>129</v>
       </c>
       <c r="C20" s="87">
         <f>'Results - comparison'!C19</f>
-        <v>171577.10555570896</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+        <v>259554.46605739882</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="84" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="88">
         <f>'Results - comparison'!D19</f>
-        <v>0.36089568385104859</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+        <v>0.25548676002070542</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="85" t="s">
         <v>132</v>
       </c>
       <c r="C22" s="89">
         <f>'Results - comparison'!E19</f>
-        <v>1.8155148292629732E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+        <v>5.6788604607810454E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="85" t="s">
         <v>133</v>
       </c>
       <c r="C23" s="88">
         <f>'Results - comparison'!F19</f>
-        <v>0.41044882344474937</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.53435013801762998</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="90" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="91">
         <f>'Results - comparison'!G19</f>
-        <v>1.5562924701355698E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.5373595716263401E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="113" t="s">
         <v>194</v>
       </c>
       <c r="C25" s="91">
         <f>'Results - comparison'!H19</f>
-        <v>0.19493741971021655</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+        <v>0.13800090163759079</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C26" s="92">
         <f>SUM(C21:C25)</f>
         <v>1</v>
